--- a/SE201 - Project 1.xlsx
+++ b/SE201 - Project 1.xlsx
@@ -10,6 +10,7 @@
     <sheet state="visible" name="PT2" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="PT3" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="PT4" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="PT4-aux" sheetId="8" r:id="rId11"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1358" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="381">
   <si>
     <t>HEX</t>
   </si>
@@ -772,9 +773,16 @@
     <t>func2</t>
   </si>
   <si>
+    <t>mnemonical
+name</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
+    <t>format</t>
+  </si>
+  <si>
     <t>Register</t>
   </si>
   <si>
@@ -787,12 +795,18 @@
     <t>Saver</t>
   </si>
   <si>
+    <t>*</t>
+  </si>
+  <si>
     <t>imm[9:6]</t>
   </si>
   <si>
     <t>imm[5:0]</t>
   </si>
   <si>
+    <t>branch</t>
+  </si>
+  <si>
     <t>jr lr</t>
   </si>
   <si>
@@ -814,6 +828,9 @@
     <t>funct2</t>
   </si>
   <si>
+    <t>register operation</t>
+  </si>
+  <si>
     <t>mv rd, rs1</t>
   </si>
   <si>
@@ -844,6 +861,9 @@
     <t>RS</t>
   </si>
   <si>
+    <t>r short</t>
+  </si>
+  <si>
     <t>nop</t>
   </si>
   <si>
@@ -874,6 +894,9 @@
     <t>imm[0]</t>
   </si>
   <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>push rs</t>
   </si>
   <si>
@@ -898,6 +921,9 @@
     <t>L</t>
   </si>
   <si>
+    <t>load</t>
+  </si>
+  <si>
     <t>pop rd</t>
   </si>
   <si>
@@ -907,214 +933,235 @@
     <t>0x0</t>
   </si>
   <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>sll rd, rs1</t>
+  </si>
+  <si>
+    <t>s0/fp</t>
+  </si>
+  <si>
+    <t>Saved register 0 or frame pointer</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>srl rd, rs1</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>Stack pointer</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>jump-immediate</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sra rd, rs1</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>Link register</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>orr</t>
+  </si>
+  <si>
+    <t>orr rd, rs1</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xor rd, rs1</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>not rd, rs1</t>
+  </si>
+  <si>
+    <t>Arguments are passed using a1-a4 if smaller than 16 Bytes, on the stack otherwise. Arguments are not preserved by the callee. Return data again from a1 to a4 depending on its size</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>neg rd, rs1</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>sez</t>
+  </si>
+  <si>
+    <t>sez rd, rs1</t>
+  </si>
+  <si>
+    <t>slz</t>
+  </si>
+  <si>
+    <t>slz rd, rs1</t>
+  </si>
+  <si>
+    <t>func2 = 11 is forbidden for the Immediate instruction</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>sgz</t>
+  </si>
+  <si>
+    <t>sgz rd, rs1</t>
+  </si>
+  <si>
+    <t>bit e represent if sign should be extended in li</t>
+  </si>
+  <si>
+    <t>0xa</t>
+  </si>
+  <si>
+    <t>sgez</t>
+  </si>
+  <si>
+    <t>sgez rd, rs1</t>
+  </si>
+  <si>
+    <t>nop will be addi x0,x0,0</t>
+  </si>
+  <si>
+    <t>0xb</t>
+  </si>
+  <si>
+    <t>slez</t>
+  </si>
+  <si>
+    <t>slez rd, rs1</t>
+  </si>
+  <si>
+    <t>slli immediate will be always unsigned</t>
+  </si>
+  <si>
+    <t>sw rs2, imm(rs1)</t>
+  </si>
+  <si>
+    <t>the difference between liw and lib is that lib does not sign extend and allow vales from 0 to 255</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>lw rd, imm(rs1)</t>
+  </si>
+  <si>
+    <t>also pseudo mv rd, imm that expand to 1 to 8 instructions</t>
+  </si>
+  <si>
+    <t>addi rd, rs1, &lt;imm&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call automatically save pc+4 to lr </t>
+  </si>
+  <si>
+    <t>slli rd, rs1, &lt;imm&gt;</t>
+  </si>
+  <si>
+    <t>Rs is a subset of R</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>li rd, &lt;imm&gt;</t>
+  </si>
+  <si>
+    <t>stack is full descendent</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>call &lt;label or offset&gt;</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>jr rs1</t>
+  </si>
+  <si>
+    <t>bnz not taken</t>
+  </si>
+  <si>
+    <t>pc+2</t>
+  </si>
+  <si>
+    <t>bnz taken, call</t>
+  </si>
+  <si>
+    <t>adder</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
     <t>add rd, rs1</t>
   </si>
   <si>
-    <t>s0/fp</t>
-  </si>
-  <si>
-    <t>Saved register 0 or frame pointer</t>
-  </si>
-  <si>
-    <t>0x1</t>
-  </si>
-  <si>
     <t>sub</t>
   </si>
   <si>
     <t>sub rd, rs1</t>
   </si>
   <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>Stack pointer</t>
-  </si>
-  <si>
-    <t>immediate</t>
-  </si>
-  <si>
-    <t>JI</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>Link register</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>0x3</t>
-  </si>
-  <si>
-    <t>sll</t>
-  </si>
-  <si>
-    <t>sll rd, rs1</t>
-  </si>
-  <si>
-    <t>0x4</t>
-  </si>
-  <si>
-    <t>srl</t>
-  </si>
-  <si>
-    <t>srl rd, rs1</t>
-  </si>
-  <si>
-    <t>0x5</t>
-  </si>
-  <si>
-    <t>sra</t>
-  </si>
-  <si>
-    <t>sra rd, rs1</t>
-  </si>
-  <si>
-    <t>Arguments are passed using a1-a4 if smaller than 16 Bytes, on the stack otherwise. Arguments are not preserved by the callee. Return data again from a1 to a4 depending on its size</t>
-  </si>
-  <si>
-    <t>0x6</t>
-  </si>
-  <si>
-    <t>orr</t>
-  </si>
-  <si>
-    <t>orr rd, rs1</t>
-  </si>
-  <si>
-    <t>0x7</t>
-  </si>
-  <si>
-    <t>xor</t>
-  </si>
-  <si>
-    <t>xor rd, rs1</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>not rd, rs1</t>
-  </si>
-  <si>
-    <t>func2 = 11 is forbidden for the Immediate instruction</t>
-  </si>
-  <si>
-    <t>0x9</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>neg rd, rs1</t>
-  </si>
-  <si>
-    <t>bit e represent if sign should be extended in li</t>
-  </si>
-  <si>
-    <t>0xa</t>
-  </si>
-  <si>
-    <t>sez</t>
-  </si>
-  <si>
-    <t>sez rd, rs1</t>
-  </si>
-  <si>
-    <t>nop will be addi x0,x0,0</t>
-  </si>
-  <si>
-    <t>0xb</t>
-  </si>
-  <si>
-    <t>slz</t>
-  </si>
-  <si>
-    <t>slz rd, rs1</t>
-  </si>
-  <si>
-    <t>slli immediate will be always unsigned</t>
-  </si>
-  <si>
     <t>0xc</t>
   </si>
   <si>
-    <t>sgz</t>
-  </si>
-  <si>
-    <t>sgz rd, rs1</t>
-  </si>
-  <si>
-    <t>the difference between liw and lib is that lib does not sign extend and allow vales from 0 to 255</t>
-  </si>
-  <si>
     <t>0xd</t>
   </si>
   <si>
-    <t>sgez</t>
-  </si>
-  <si>
-    <t>sgez rd, rs1</t>
-  </si>
-  <si>
-    <t>also pseudo mv rd, imm that expand to 1 to 8 instructions</t>
-  </si>
-  <si>
     <t>0xe</t>
-  </si>
-  <si>
-    <t>slez</t>
-  </si>
-  <si>
-    <t>slez rd, rs1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call automatically save pc+4 to lr </t>
-  </si>
-  <si>
-    <t>Rs is a subset of R</t>
-  </si>
-  <si>
-    <t>sw rs2, imm(rs1)</t>
-  </si>
-  <si>
-    <t>stack is full descendent</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>lw rd, imm(rs1)</t>
-  </si>
-  <si>
-    <t>addi rd, rs1, &lt;imm&gt;</t>
-  </si>
-  <si>
-    <t>slli rd, rs1, &lt;imm&gt;</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>li rd, &lt;imm&gt;</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>call &lt;label or offset&gt;</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>jr</t>
-  </si>
-  <si>
-    <t>jr rs1</t>
   </si>
 </sst>
 </file>
@@ -1274,7 +1321,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border/>
     <border>
       <left style="thin">
@@ -1320,11 +1367,41 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="66">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1455,8 +1532,8 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf borderId="1" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
@@ -1465,17 +1542,41 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1545,6 +1646,10 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -11295,11 +11400,13 @@
     <col customWidth="1" min="1" max="1" width="11.88"/>
     <col customWidth="1" min="2" max="17" width="2.63"/>
     <col customWidth="1" min="18" max="18" width="8.13"/>
-    <col customWidth="1" min="19" max="19" width="7.75"/>
-    <col customWidth="1" min="23" max="23" width="10.25"/>
-    <col customWidth="1" min="24" max="27" width="6.38"/>
+    <col customWidth="1" min="19" max="19" width="14.0"/>
+    <col customWidth="1" min="23" max="23" width="13.13"/>
+    <col customWidth="1" min="24" max="26" width="6.38"/>
+    <col customWidth="1" min="27" max="27" width="14.88"/>
     <col customWidth="1" min="28" max="28" width="19.38"/>
-    <col customWidth="1" min="29" max="32" width="5.13"/>
+    <col customWidth="1" min="29" max="29" width="6.13"/>
+    <col customWidth="1" min="30" max="32" width="5.13"/>
     <col customWidth="1" min="33" max="33" width="16.63"/>
     <col customWidth="1" min="34" max="34" width="6.63"/>
     <col customWidth="1" min="35" max="35" width="7.63"/>
@@ -11399,44 +11506,48 @@
       <c r="X3" s="46" t="s">
         <v>249</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="Y3" s="46" t="s">
         <v>250</v>
       </c>
-      <c r="Z3" s="47" t="s">
+      <c r="Z3" s="46" t="s">
         <v>72</v>
       </c>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="45" t="s">
+      <c r="AA3" s="46" t="s">
         <v>251</v>
       </c>
-      <c r="AC3" s="47"/>
+      <c r="AB3" s="46" t="s">
+        <v>252</v>
+      </c>
+      <c r="AC3" s="46" t="s">
+        <v>253</v>
+      </c>
       <c r="AD3" s="47"/>
       <c r="AE3" s="47"/>
       <c r="AH3" s="42"/>
       <c r="AI3" s="14" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AJ3" s="14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AK3" s="14" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AL3" s="14" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AM3" s="42"/>
       <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-      <c r="AP3" s="42"/>
-      <c r="AQ3" s="42"/>
       <c r="AR3" s="42"/>
       <c r="AS3" s="42"/>
       <c r="AT3" s="42"/>
     </row>
     <row r="4">
+      <c r="A4" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B4" s="48" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C4" s="49"/>
       <c r="D4" s="49"/>
@@ -11448,7 +11559,7 @@
       <c r="H4" s="49"/>
       <c r="I4" s="25"/>
       <c r="J4" s="48" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="K4" s="49"/>
       <c r="L4" s="49"/>
@@ -11464,31 +11575,34 @@
       <c r="R4" s="14" t="s">
         <v>88</v>
       </c>
+      <c r="S4" s="45" t="s">
+        <v>261</v>
+      </c>
       <c r="T4" s="7"/>
       <c r="U4" s="18"/>
       <c r="V4" s="2" t="s">
         <v>232</v>
       </c>
       <c r="W4" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="X4" s="44"/>
-      <c r="Y4" s="44"/>
-      <c r="Z4" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="AA4" s="50" t="s">
-        <v>260</v>
-      </c>
-      <c r="AB4" s="50" t="s">
-        <v>261</v>
-      </c>
-      <c r="AC4" s="51" t="s">
+        <v>262</v>
+      </c>
+      <c r="X4" s="50"/>
+      <c r="Y4" s="50"/>
+      <c r="Z4" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="AA4" s="52" t="s">
+        <v>264</v>
+      </c>
+      <c r="AB4" s="52" t="s">
+        <v>265</v>
+      </c>
+      <c r="AC4" s="53" t="s">
         <v>88</v>
       </c>
-      <c r="AD4" s="46"/>
-      <c r="AE4" s="46"/>
-      <c r="AH4" s="50"/>
+      <c r="AD4" s="54"/>
+      <c r="AE4" s="54"/>
+      <c r="AH4" s="55"/>
       <c r="AI4" s="52" t="s">
         <v>30</v>
       </c>
@@ -11496,19 +11610,16 @@
         <v>123</v>
       </c>
       <c r="AK4" s="52" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AL4" s="52" t="s">
-        <v>263</v>
-      </c>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="50"/>
-      <c r="AO4" s="50"/>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="50"/>
+        <v>267</v>
+      </c>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AR4" s="55"/>
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
     </row>
     <row r="5">
       <c r="B5" s="48" t="s">
@@ -11530,7 +11641,7 @@
       <c r="L5" s="49"/>
       <c r="M5" s="25"/>
       <c r="N5" s="48" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O5" s="25"/>
       <c r="P5" s="8">
@@ -11542,53 +11653,53 @@
       <c r="R5" s="14" t="s">
         <v>99</v>
       </c>
+      <c r="S5" s="45" t="s">
+        <v>269</v>
+      </c>
       <c r="T5" s="7"/>
       <c r="U5" s="18"/>
       <c r="V5" s="2" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="W5" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="X5" s="44"/>
-      <c r="Y5" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z5" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA5" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="X5" s="50"/>
+      <c r="Y5" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z5" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA5" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="50" t="s">
-        <v>269</v>
-      </c>
-      <c r="AC5" s="51" t="s">
+      <c r="AB5" s="52" t="s">
+        <v>274</v>
+      </c>
+      <c r="AC5" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="AD5" s="46"/>
-      <c r="AE5" s="46"/>
-      <c r="AH5" s="50"/>
+      <c r="AD5" s="54"/>
+      <c r="AE5" s="54"/>
+      <c r="AH5" s="55"/>
       <c r="AI5" s="52" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="AJ5" s="41" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="AK5" s="52" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AL5" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM5" s="50"/>
-      <c r="AN5" s="50"/>
-      <c r="AO5" s="50"/>
-      <c r="AP5" s="50"/>
-      <c r="AQ5" s="50"/>
-      <c r="AR5" s="50"/>
-      <c r="AS5" s="50"/>
-      <c r="AT5" s="50"/>
+        <v>278</v>
+      </c>
+      <c r="AM5" s="55"/>
+      <c r="AN5" s="55"/>
+      <c r="AR5" s="55"/>
+      <c r="AS5" s="55"/>
+      <c r="AT5" s="55"/>
     </row>
     <row r="6">
       <c r="B6" s="48" t="s">
@@ -11622,56 +11733,60 @@
         <v>1.0</v>
       </c>
       <c r="R6" s="14" t="s">
-        <v>274</v>
+        <v>279</v>
+      </c>
+      <c r="S6" s="45" t="s">
+        <v>280</v>
       </c>
       <c r="T6" s="7"/>
       <c r="U6" s="8"/>
       <c r="V6" s="2" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="W6" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="X6" s="44"/>
-      <c r="Y6" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z6" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA6" s="2" t="s">
-        <v>277</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="AD6" s="46"/>
-      <c r="AE6" s="46"/>
-      <c r="AH6" s="50"/>
+        <v>282</v>
+      </c>
+      <c r="X6" s="50"/>
+      <c r="Y6" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z6" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA6" s="41" t="s">
+        <v>283</v>
+      </c>
+      <c r="AB6" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="54"/>
+      <c r="AE6" s="54"/>
+      <c r="AH6" s="55"/>
       <c r="AI6" s="52" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="AJ6" s="41" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="AK6" s="52" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="AL6" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM6" s="50"/>
-      <c r="AN6" s="50"/>
-      <c r="AO6" s="50"/>
-      <c r="AP6" s="50"/>
-      <c r="AQ6" s="50"/>
-      <c r="AR6" s="50"/>
-      <c r="AS6" s="50"/>
-      <c r="AT6" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
     </row>
     <row r="7">
+      <c r="A7" s="2" t="s">
+        <v>258</v>
+      </c>
       <c r="B7" s="48" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="C7" s="49"/>
       <c r="D7" s="49"/>
@@ -11689,7 +11804,7 @@
       <c r="L7" s="49"/>
       <c r="M7" s="25"/>
       <c r="N7" s="8" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="O7" s="8">
         <v>0.0</v>
@@ -11702,51 +11817,52 @@
       </c>
       <c r="R7" s="14" t="s">
         <v>104</v>
+      </c>
+      <c r="S7" s="45" t="s">
+        <v>291</v>
       </c>
       <c r="T7" s="7"/>
       <c r="U7" s="8"/>
       <c r="V7" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="W7" s="53" t="s">
-        <v>286</v>
-      </c>
-      <c r="X7" s="44"/>
-      <c r="Y7" s="46" t="s">
+        <v>292</v>
+      </c>
+      <c r="W7" s="58" t="s">
+        <v>293</v>
+      </c>
+      <c r="X7" s="50"/>
+      <c r="Y7" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="Z7" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA7" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB7" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD7" s="46"/>
-      <c r="AE7" s="46"/>
-      <c r="AH7" s="50"/>
+      <c r="Z7" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA7" s="52" t="s">
+        <v>294</v>
+      </c>
+      <c r="AB7" s="52" t="s">
+        <v>295</v>
+      </c>
+      <c r="AC7" s="59"/>
+      <c r="AD7" s="54"/>
+      <c r="AE7" s="54"/>
+      <c r="AH7" s="55"/>
       <c r="AI7" s="52" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="AJ7" s="41" t="s">
-        <v>290</v>
+        <v>297</v>
       </c>
       <c r="AK7" s="52" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="AL7" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM7" s="50"/>
-      <c r="AN7" s="50"/>
-      <c r="AO7" s="50"/>
-      <c r="AP7" s="50"/>
-      <c r="AQ7" s="50"/>
-      <c r="AR7" s="50"/>
-      <c r="AS7" s="50"/>
-      <c r="AT7" s="50"/>
+        <v>278</v>
+      </c>
+      <c r="AM7" s="55"/>
+      <c r="AN7" s="55"/>
+      <c r="AR7" s="55"/>
+      <c r="AS7" s="55"/>
+      <c r="AT7" s="55"/>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="B8" s="48" t="s">
@@ -11778,55 +11894,55 @@
         <v>0.0</v>
       </c>
       <c r="R8" s="14" t="s">
-        <v>292</v>
+        <v>299</v>
+      </c>
+      <c r="S8" s="45" t="s">
+        <v>300</v>
       </c>
       <c r="T8" s="7"/>
       <c r="U8" s="8"/>
       <c r="V8" s="2" t="s">
-        <v>293</v>
-      </c>
-      <c r="W8" s="53" t="s">
-        <v>294</v>
-      </c>
-      <c r="X8" s="46" t="s">
-        <v>295</v>
-      </c>
-      <c r="Y8" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z8" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA8" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="AB8" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="AC8" s="54" t="s">
-        <v>274</v>
-      </c>
-      <c r="AH8" s="50"/>
+        <v>301</v>
+      </c>
+      <c r="W8" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="X8" s="51" t="s">
+        <v>303</v>
+      </c>
+      <c r="Y8" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z8" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA8" s="52" t="s">
+        <v>304</v>
+      </c>
+      <c r="AB8" s="52" t="s">
+        <v>305</v>
+      </c>
+      <c r="AC8" s="60" t="s">
+        <v>279</v>
+      </c>
+      <c r="AH8" s="55"/>
       <c r="AI8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="AJ8" s="41" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="AK8" s="52" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="AL8" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM8" s="50"/>
-      <c r="AN8" s="50"/>
-      <c r="AO8" s="50"/>
-      <c r="AP8" s="50"/>
-      <c r="AQ8" s="50"/>
-      <c r="AR8" s="50"/>
-      <c r="AS8" s="50"/>
-      <c r="AT8" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="AM8" s="55"/>
+      <c r="AN8" s="55"/>
+      <c r="AR8" s="55"/>
+      <c r="AS8" s="55"/>
+      <c r="AT8" s="55"/>
     </row>
     <row r="9">
       <c r="B9" s="48" t="s">
@@ -11846,7 +11962,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="25"/>
       <c r="N9" s="48" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="O9" s="25"/>
       <c r="P9" s="8">
@@ -11858,50 +11974,51 @@
       <c r="R9" s="14" t="s">
         <v>82</v>
       </c>
+      <c r="S9" s="45" t="s">
+        <v>308</v>
+      </c>
       <c r="T9" s="7"/>
       <c r="U9" s="8"/>
-      <c r="X9" s="46" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y9" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z9" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA9" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="AB9" s="50" t="s">
-        <v>301</v>
-      </c>
-      <c r="AD9" s="46"/>
-      <c r="AE9" s="46"/>
-      <c r="AH9" s="50"/>
+      <c r="X9" s="51" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y9" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z9" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA9" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="AB9" s="52" t="s">
+        <v>311</v>
+      </c>
+      <c r="AC9" s="57"/>
+      <c r="AD9" s="54"/>
+      <c r="AE9" s="54"/>
+      <c r="AH9" s="55"/>
       <c r="AI9" s="41" t="s">
         <v>37</v>
       </c>
       <c r="AJ9" s="41" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AK9" s="52" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
       <c r="AL9" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="AM9" s="50"/>
-      <c r="AN9" s="50"/>
-      <c r="AO9" s="50"/>
-      <c r="AP9" s="50"/>
-      <c r="AQ9" s="50"/>
-      <c r="AR9" s="50"/>
-      <c r="AS9" s="50"/>
-      <c r="AT9" s="50"/>
+        <v>288</v>
+      </c>
+      <c r="AM9" s="55"/>
+      <c r="AN9" s="55"/>
+      <c r="AR9" s="55"/>
+      <c r="AS9" s="55"/>
+      <c r="AT9" s="55"/>
     </row>
     <row r="10">
       <c r="B10" s="48" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C10" s="49"/>
       <c r="D10" s="49"/>
@@ -11929,48 +12046,49 @@
         <v>0.0</v>
       </c>
       <c r="R10" s="14" t="s">
-        <v>305</v>
+        <v>314</v>
+      </c>
+      <c r="S10" s="45" t="s">
+        <v>315</v>
       </c>
       <c r="T10" s="7"/>
       <c r="U10" s="8"/>
-      <c r="X10" s="46" t="s">
+      <c r="X10" s="51" t="s">
         <v>169</v>
       </c>
-      <c r="Y10" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z10" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA10" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="AB10" s="50" t="s">
-        <v>288</v>
-      </c>
-      <c r="AD10" s="46"/>
-      <c r="AE10" s="46"/>
-      <c r="AH10" s="50"/>
+      <c r="Y10" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z10" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA10" s="52" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB10" s="52" t="s">
+        <v>317</v>
+      </c>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="54"/>
+      <c r="AE10" s="54"/>
+      <c r="AH10" s="55"/>
       <c r="AI10" s="41" t="s">
         <v>33</v>
       </c>
       <c r="AJ10" s="41" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="AK10" s="52" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="AL10" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="AM10" s="50"/>
-      <c r="AN10" s="50"/>
-      <c r="AO10" s="50"/>
-      <c r="AP10" s="50"/>
-      <c r="AQ10" s="50"/>
-      <c r="AR10" s="50"/>
-      <c r="AS10" s="50"/>
-      <c r="AT10" s="50"/>
+        <v>278</v>
+      </c>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="55"/>
     </row>
     <row r="11">
       <c r="B11" s="48" t="s">
@@ -12008,38 +12126,39 @@
         <v>0.0</v>
       </c>
       <c r="R11" s="14" t="s">
-        <v>308</v>
+        <v>320</v>
+      </c>
+      <c r="S11" s="45" t="s">
+        <v>321</v>
       </c>
       <c r="T11" s="7"/>
       <c r="U11" s="18"/>
-      <c r="X11" s="46" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y11" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z11" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA11" s="50" t="s">
-        <v>310</v>
-      </c>
-      <c r="AB11" s="50" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD11" s="46"/>
-      <c r="AE11" s="46"/>
-      <c r="AH11" s="50"/>
-      <c r="AK11" s="50"/>
-      <c r="AL11" s="50"/>
-      <c r="AM11" s="50"/>
-      <c r="AN11" s="50"/>
-      <c r="AO11" s="50"/>
-      <c r="AP11" s="50"/>
-      <c r="AQ11" s="50"/>
-      <c r="AR11" s="50"/>
-      <c r="AS11" s="50"/>
-      <c r="AT11" s="50"/>
+      <c r="X11" s="51" t="s">
+        <v>322</v>
+      </c>
+      <c r="Y11" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z11" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA11" s="41" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB11" s="41" t="s">
+        <v>324</v>
+      </c>
+      <c r="AC11" s="57"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="54"/>
+      <c r="AH11" s="55"/>
+      <c r="AK11" s="55"/>
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="55"/>
+      <c r="AN11" s="55"/>
+      <c r="AR11" s="55"/>
+      <c r="AS11" s="55"/>
+      <c r="AT11" s="55"/>
     </row>
     <row r="12">
       <c r="B12" s="42"/>
@@ -12060,34 +12179,32 @@
       <c r="Q12" s="42"/>
       <c r="T12" s="7"/>
       <c r="U12" s="18"/>
-      <c r="X12" s="46" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y12" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z12" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA12" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="AB12" s="50" t="s">
-        <v>314</v>
-      </c>
-      <c r="AD12" s="46"/>
-      <c r="AE12" s="46"/>
-      <c r="AH12" s="50"/>
-      <c r="AK12" s="50"/>
-      <c r="AL12" s="50"/>
-      <c r="AM12" s="50"/>
-      <c r="AN12" s="50"/>
-      <c r="AO12" s="50"/>
-      <c r="AP12" s="50"/>
-      <c r="AQ12" s="50"/>
-      <c r="AR12" s="50"/>
-      <c r="AS12" s="50"/>
-      <c r="AT12" s="50"/>
+      <c r="X12" s="51" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y12" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z12" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA12" s="41" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB12" s="41" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="54"/>
+      <c r="AE12" s="54"/>
+      <c r="AH12" s="55"/>
+      <c r="AK12" s="55"/>
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="55"/>
+      <c r="AN12" s="55"/>
+      <c r="AR12" s="55"/>
+      <c r="AS12" s="55"/>
+      <c r="AT12" s="55"/>
     </row>
     <row r="13">
       <c r="B13" s="42"/>
@@ -12108,37 +12225,38 @@
       <c r="Q13" s="42"/>
       <c r="T13" s="7"/>
       <c r="U13" s="18"/>
-      <c r="X13" s="46" t="s">
-        <v>315</v>
-      </c>
-      <c r="Y13" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z13" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA13" s="50" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB13" s="50" t="s">
-        <v>317</v>
-      </c>
-      <c r="AD13" s="46"/>
-      <c r="AE13" s="46"/>
-      <c r="AH13" s="50"/>
+      <c r="X13" s="51" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y13" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z13" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA13" s="41" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB13" s="41" t="s">
+        <v>330</v>
+      </c>
+      <c r="AC13" s="57"/>
+      <c r="AD13" s="54"/>
+      <c r="AE13" s="54"/>
+      <c r="AH13" s="55"/>
       <c r="AI13" s="2" t="s">
-        <v>318</v>
-      </c>
-      <c r="AK13" s="50"/>
-      <c r="AL13" s="50"/>
-      <c r="AM13" s="50"/>
-      <c r="AN13" s="50"/>
-      <c r="AO13" s="50"/>
-      <c r="AP13" s="50"/>
-      <c r="AQ13" s="50"/>
-      <c r="AR13" s="50"/>
-      <c r="AS13" s="50"/>
-      <c r="AT13" s="50"/>
+        <v>331</v>
+      </c>
+      <c r="AK13" s="55"/>
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="55"/>
+      <c r="AN13" s="55"/>
+      <c r="AO13" s="55"/>
+      <c r="AP13" s="55"/>
+      <c r="AQ13" s="55"/>
+      <c r="AR13" s="55"/>
+      <c r="AS13" s="55"/>
+      <c r="AT13" s="55"/>
     </row>
     <row r="14">
       <c r="B14" s="42"/>
@@ -12158,34 +12276,35 @@
       <c r="Q14" s="42"/>
       <c r="T14" s="7"/>
       <c r="U14" s="18"/>
-      <c r="X14" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y14" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z14" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="AB14" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD14" s="46"/>
-      <c r="AE14" s="46"/>
-      <c r="AH14" s="50"/>
-      <c r="AK14" s="50"/>
-      <c r="AL14" s="50"/>
-      <c r="AM14" s="50"/>
-      <c r="AN14" s="50"/>
-      <c r="AO14" s="50"/>
-      <c r="AP14" s="50"/>
-      <c r="AQ14" s="50"/>
-      <c r="AR14" s="50"/>
-      <c r="AS14" s="50"/>
-      <c r="AT14" s="50"/>
+      <c r="X14" s="51" t="s">
+        <v>332</v>
+      </c>
+      <c r="Y14" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z14" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA14" s="41" t="s">
+        <v>333</v>
+      </c>
+      <c r="AB14" s="41" t="s">
+        <v>334</v>
+      </c>
+      <c r="AC14" s="57"/>
+      <c r="AD14" s="54"/>
+      <c r="AE14" s="54"/>
+      <c r="AH14" s="55"/>
+      <c r="AK14" s="55"/>
+      <c r="AL14" s="55"/>
+      <c r="AM14" s="55"/>
+      <c r="AN14" s="55"/>
+      <c r="AO14" s="55"/>
+      <c r="AP14" s="55"/>
+      <c r="AQ14" s="55"/>
+      <c r="AR14" s="55"/>
+      <c r="AS14" s="55"/>
+      <c r="AT14" s="55"/>
     </row>
     <row r="15">
       <c r="B15" s="42"/>
@@ -12203,34 +12322,35 @@
       <c r="N15" s="42"/>
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
-      <c r="X15" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="Y15" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z15" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD15" s="46"/>
-      <c r="AE15" s="46"/>
-      <c r="AH15" s="50"/>
-      <c r="AK15" s="50"/>
-      <c r="AL15" s="50"/>
-      <c r="AM15" s="50"/>
-      <c r="AN15" s="50"/>
-      <c r="AO15" s="50"/>
-      <c r="AP15" s="50"/>
-      <c r="AQ15" s="50"/>
-      <c r="AR15" s="50"/>
-      <c r="AS15" s="50"/>
-      <c r="AT15" s="50"/>
+      <c r="X15" s="51" t="s">
+        <v>335</v>
+      </c>
+      <c r="Y15" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z15" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA15" s="41" t="s">
+        <v>336</v>
+      </c>
+      <c r="AB15" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="AC15" s="57"/>
+      <c r="AD15" s="54"/>
+      <c r="AE15" s="54"/>
+      <c r="AH15" s="55"/>
+      <c r="AK15" s="55"/>
+      <c r="AL15" s="55"/>
+      <c r="AM15" s="55"/>
+      <c r="AN15" s="55"/>
+      <c r="AO15" s="55"/>
+      <c r="AP15" s="55"/>
+      <c r="AQ15" s="55"/>
+      <c r="AR15" s="55"/>
+      <c r="AS15" s="55"/>
+      <c r="AT15" s="55"/>
     </row>
     <row r="16">
       <c r="B16" s="42"/>
@@ -12243,36 +12363,37 @@
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
       <c r="K16" s="42"/>
-      <c r="X16" s="46" t="s">
+      <c r="X16" s="51" t="s">
         <v>197</v>
       </c>
-      <c r="Y16" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z16" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA16" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="AD16" s="46"/>
-      <c r="AE16" s="46"/>
-      <c r="AH16" s="50"/>
-      <c r="AM16" s="50"/>
-      <c r="AN16" s="50"/>
-      <c r="AO16" s="50"/>
-      <c r="AP16" s="50"/>
-      <c r="AQ16" s="50"/>
-      <c r="AR16" s="50"/>
-      <c r="AS16" s="50"/>
-      <c r="AT16" s="50"/>
+      <c r="Y16" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z16" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA16" s="41" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB16" s="41" t="s">
+        <v>339</v>
+      </c>
+      <c r="AC16" s="57"/>
+      <c r="AD16" s="54"/>
+      <c r="AE16" s="54"/>
+      <c r="AH16" s="55"/>
+      <c r="AM16" s="55"/>
+      <c r="AN16" s="55"/>
+      <c r="AO16" s="55"/>
+      <c r="AP16" s="55"/>
+      <c r="AQ16" s="55"/>
+      <c r="AR16" s="55"/>
+      <c r="AS16" s="55"/>
+      <c r="AT16" s="55"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>327</v>
+        <v>340</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -12284,35 +12405,36 @@
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
-      <c r="X17" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="Y17" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z17" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA17" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="AB17" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AM17" s="50"/>
-      <c r="AN17" s="50"/>
-      <c r="AO17" s="50"/>
-      <c r="AP17" s="50"/>
-      <c r="AQ17" s="50"/>
-      <c r="AR17" s="50"/>
-      <c r="AS17" s="50"/>
-      <c r="AT17" s="50"/>
+      <c r="X17" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y17" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z17" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA17" s="41" t="s">
+        <v>342</v>
+      </c>
+      <c r="AB17" s="41" t="s">
+        <v>343</v>
+      </c>
+      <c r="AC17" s="57"/>
+      <c r="AD17" s="54"/>
+      <c r="AE17" s="54"/>
+      <c r="AM17" s="55"/>
+      <c r="AN17" s="55"/>
+      <c r="AO17" s="55"/>
+      <c r="AP17" s="55"/>
+      <c r="AQ17" s="55"/>
+      <c r="AR17" s="55"/>
+      <c r="AS17" s="55"/>
+      <c r="AT17" s="55"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -12324,35 +12446,36 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
-      <c r="X18" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="Y18" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z18" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA18" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD18" s="46"/>
-      <c r="AE18" s="46"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="50"/>
-      <c r="AQ18" s="50"/>
-      <c r="AR18" s="50"/>
-      <c r="AS18" s="50"/>
-      <c r="AT18" s="50"/>
+      <c r="X18" s="51" t="s">
+        <v>345</v>
+      </c>
+      <c r="Y18" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z18" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA18" s="41" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB18" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC18" s="57"/>
+      <c r="AD18" s="54"/>
+      <c r="AE18" s="54"/>
+      <c r="AM18" s="55"/>
+      <c r="AN18" s="55"/>
+      <c r="AO18" s="55"/>
+      <c r="AP18" s="55"/>
+      <c r="AQ18" s="55"/>
+      <c r="AR18" s="55"/>
+      <c r="AS18" s="55"/>
+      <c r="AT18" s="55"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -12364,35 +12487,36 @@
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
-      <c r="X19" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y19" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z19" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA19" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="AB19" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD19" s="46"/>
-      <c r="AE19" s="46"/>
-      <c r="AM19" s="50"/>
-      <c r="AN19" s="50"/>
-      <c r="AO19" s="50"/>
-      <c r="AP19" s="50"/>
-      <c r="AQ19" s="50"/>
-      <c r="AR19" s="50"/>
-      <c r="AS19" s="50"/>
-      <c r="AT19" s="50"/>
+      <c r="X19" s="51" t="s">
+        <v>349</v>
+      </c>
+      <c r="Y19" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="Z19" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="AA19" s="41" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB19" s="41" t="s">
+        <v>351</v>
+      </c>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="54"/>
+      <c r="AE19" s="54"/>
+      <c r="AM19" s="55"/>
+      <c r="AN19" s="55"/>
+      <c r="AO19" s="55"/>
+      <c r="AP19" s="55"/>
+      <c r="AQ19" s="55"/>
+      <c r="AR19" s="55"/>
+      <c r="AS19" s="55"/>
+      <c r="AT19" s="55"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>339</v>
+        <v>352</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -12404,33 +12528,32 @@
       <c r="I20" s="42"/>
       <c r="J20" s="42"/>
       <c r="K20" s="42"/>
-      <c r="X20" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="Y20" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z20" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA20" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="AM20" s="50"/>
-      <c r="AN20" s="50"/>
-      <c r="AO20" s="50"/>
-      <c r="AP20" s="50"/>
-      <c r="AQ20" s="50"/>
-      <c r="AR20" s="50"/>
-      <c r="AS20" s="50"/>
-      <c r="AT20" s="50"/>
+      <c r="X20" s="51"/>
+      <c r="Y20" s="51"/>
+      <c r="Z20" s="51" t="s">
+        <v>100</v>
+      </c>
+      <c r="AA20" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="AB20" s="52" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC20" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM20" s="55"/>
+      <c r="AN20" s="55"/>
+      <c r="AO20" s="55"/>
+      <c r="AP20" s="55"/>
+      <c r="AQ20" s="55"/>
+      <c r="AR20" s="55"/>
+      <c r="AS20" s="55"/>
+      <c r="AT20" s="55"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>343</v>
+        <v>354</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -12442,25 +12565,24 @@
       <c r="I21" s="42"/>
       <c r="J21" s="42"/>
       <c r="K21" s="42"/>
-      <c r="X21" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y21" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z21" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA21" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="AB21" s="2" t="s">
-        <v>346</v>
+      <c r="X21" s="51"/>
+      <c r="Y21" s="51"/>
+      <c r="Z21" s="51" t="s">
+        <v>355</v>
+      </c>
+      <c r="AA21" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="AB21" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="AC21" s="61" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -12478,25 +12600,26 @@
       <c r="O22" s="42"/>
       <c r="P22" s="42"/>
       <c r="Q22" s="42"/>
-      <c r="X22" s="46" t="s">
-        <v>348</v>
-      </c>
-      <c r="Y22" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z22" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="AA22" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="AB22" s="2" t="s">
-        <v>350</v>
+      <c r="X22" s="51"/>
+      <c r="Y22" s="51" t="s">
+        <v>273</v>
+      </c>
+      <c r="Z22" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA22" s="52" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB22" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="AC22" s="60" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
@@ -12514,11 +12637,24 @@
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
-      <c r="AC23" s="55"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z23" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA23" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB23" s="52" t="s">
+        <v>360</v>
+      </c>
+      <c r="AC23" s="57"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -12536,24 +12672,24 @@
       <c r="O24" s="42"/>
       <c r="P24" s="42"/>
       <c r="Q24" s="42"/>
-      <c r="X24" s="44"/>
-      <c r="Y24" s="46"/>
-      <c r="Z24" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="AA24" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="AB24" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="AC24" s="54" t="s">
-        <v>104</v>
-      </c>
+      <c r="X24" s="50"/>
+      <c r="Y24" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z24" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA24" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB24" s="52" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC24" s="59"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
@@ -12571,19 +12707,19 @@
       <c r="O25" s="42"/>
       <c r="P25" s="42"/>
       <c r="Q25" s="42"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA25" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB25" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="AC25" s="54" t="s">
-        <v>292</v>
+      <c r="X25" s="50"/>
+      <c r="Y25" s="51"/>
+      <c r="Z25" s="51" t="s">
+        <v>102</v>
+      </c>
+      <c r="AA25" s="52" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB25" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC25" s="61" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="26">
@@ -12603,21 +12739,19 @@
       <c r="O26" s="42"/>
       <c r="P26" s="42"/>
       <c r="Q26" s="42"/>
-      <c r="X26" s="44"/>
-      <c r="Y26" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="Z26" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA26" s="50" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB26" s="50" t="s">
-        <v>357</v>
-      </c>
-      <c r="AC26" s="54" t="s">
-        <v>82</v>
+      <c r="X26" s="50"/>
+      <c r="Y26" s="51"/>
+      <c r="Z26" s="51" t="s">
+        <v>367</v>
+      </c>
+      <c r="AA26" s="52" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB26" s="52" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC26" s="61" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="27">
@@ -12638,18 +12772,6 @@
       <c r="P27" s="42"/>
       <c r="Q27" s="42"/>
       <c r="X27" s="44"/>
-      <c r="Y27" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="Z27" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA27" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="AB27" s="50" t="s">
-        <v>358</v>
-      </c>
     </row>
     <row r="28">
       <c r="B28" s="42"/>
@@ -12669,17 +12791,14 @@
       <c r="P28" s="42"/>
       <c r="Q28" s="42"/>
       <c r="X28" s="44"/>
-      <c r="Y28" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="Z28" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="AA28" s="50" t="s">
-        <v>359</v>
-      </c>
-      <c r="AB28" s="50" t="s">
-        <v>360</v>
+      <c r="Y28" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AA28" s="2" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="29">
@@ -12700,18 +12819,14 @@
       <c r="P29" s="42"/>
       <c r="Q29" s="42"/>
       <c r="X29" s="44"/>
-      <c r="Y29" s="46"/>
-      <c r="Z29" s="46" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA29" s="50" t="s">
-        <v>361</v>
-      </c>
-      <c r="AB29" s="50" t="s">
-        <v>362</v>
-      </c>
-      <c r="AC29" s="54" t="s">
-        <v>305</v>
+      <c r="Y29" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="Z29" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AA29" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="30">
@@ -12732,18 +12847,11 @@
       <c r="P30" s="42"/>
       <c r="Q30" s="42"/>
       <c r="X30" s="44"/>
-      <c r="Y30" s="46"/>
-      <c r="Z30" s="46" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA30" s="50" t="s">
-        <v>364</v>
-      </c>
-      <c r="AB30" s="50" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC30" s="54" t="s">
-        <v>308</v>
+      <c r="Y30" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AA30" s="2" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="31">
@@ -12764,6 +12872,12 @@
       <c r="P31" s="42"/>
       <c r="Q31" s="42"/>
       <c r="X31" s="44"/>
+      <c r="Y31" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="AA31" s="2" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="32">
       <c r="B32" s="42"/>
@@ -31228,28 +31342,37 @@
     </row>
   </sheetData>
   <mergeCells count="947">
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:I7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="J8:N8"/>
+    <mergeCell ref="B10:L10"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="J4:O4"/>
-    <mergeCell ref="B5:E5"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="F6:I6"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="AC8:AC19"/>
     <mergeCell ref="F9:M9"/>
     <mergeCell ref="N9:O9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="B11:E11"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="J11:K11"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:I6"/>
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:I7"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="AC5:AC7"/>
+    <mergeCell ref="AC22:AC24"/>
+    <mergeCell ref="Z86:AE86"/>
+    <mergeCell ref="Z87:AE87"/>
+    <mergeCell ref="Z88:AE88"/>
+    <mergeCell ref="Z89:AE89"/>
+    <mergeCell ref="Z90:AE90"/>
     <mergeCell ref="Z91:AE91"/>
     <mergeCell ref="Z92:AE92"/>
     <mergeCell ref="Z93:AE93"/>
@@ -31271,15 +31394,6 @@
     <mergeCell ref="Z109:AE109"/>
     <mergeCell ref="Z110:AE110"/>
     <mergeCell ref="Z111:AE111"/>
-    <mergeCell ref="AC8:AC22"/>
-    <mergeCell ref="AC26:AC28"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="J8:N8"/>
-    <mergeCell ref="Z86:AE86"/>
-    <mergeCell ref="Z87:AE87"/>
-    <mergeCell ref="Z88:AE88"/>
-    <mergeCell ref="Z89:AE89"/>
-    <mergeCell ref="Z90:AE90"/>
     <mergeCell ref="Z112:AE112"/>
     <mergeCell ref="Z113:AE113"/>
     <mergeCell ref="Z114:AE114"/>
@@ -31568,12 +31682,12 @@
     <mergeCell ref="Z397:AE397"/>
     <mergeCell ref="Z398:AE398"/>
     <mergeCell ref="Z399:AE399"/>
-    <mergeCell ref="Z400:AE400"/>
-    <mergeCell ref="Z401:AE401"/>
-    <mergeCell ref="Z402:AE402"/>
-    <mergeCell ref="Z403:AE403"/>
-    <mergeCell ref="Z404:AE404"/>
-    <mergeCell ref="Z405:AE405"/>
+    <mergeCell ref="Z743:AE743"/>
+    <mergeCell ref="Z744:AE744"/>
+    <mergeCell ref="Z745:AE745"/>
+    <mergeCell ref="Z746:AE746"/>
+    <mergeCell ref="Z747:AE747"/>
+    <mergeCell ref="Z748:AE748"/>
     <mergeCell ref="Z749:AE749"/>
     <mergeCell ref="Z750:AE750"/>
     <mergeCell ref="Z751:AE751"/>
@@ -31764,25 +31878,31 @@
     <mergeCell ref="Z936:AE936"/>
     <mergeCell ref="Z937:AE937"/>
     <mergeCell ref="Z938:AE938"/>
+    <mergeCell ref="Z988:AE988"/>
+    <mergeCell ref="Z989:AE989"/>
+    <mergeCell ref="Z990:AE990"/>
+    <mergeCell ref="Z991:AE991"/>
+    <mergeCell ref="Z992:AE992"/>
+    <mergeCell ref="Z993:AE993"/>
+    <mergeCell ref="Z994:AE994"/>
+    <mergeCell ref="Z1002:AE1002"/>
+    <mergeCell ref="Z1003:AE1003"/>
+    <mergeCell ref="Z1004:AE1004"/>
+    <mergeCell ref="Z1005:AE1005"/>
+    <mergeCell ref="Z1006:AE1006"/>
+    <mergeCell ref="Z995:AE995"/>
+    <mergeCell ref="Z996:AE996"/>
+    <mergeCell ref="Z997:AE997"/>
+    <mergeCell ref="Z998:AE998"/>
+    <mergeCell ref="Z999:AE999"/>
+    <mergeCell ref="Z1000:AE1000"/>
+    <mergeCell ref="Z1001:AE1001"/>
     <mergeCell ref="Z939:AE939"/>
     <mergeCell ref="Z940:AE940"/>
     <mergeCell ref="Z941:AE941"/>
     <mergeCell ref="Z942:AE942"/>
     <mergeCell ref="Z943:AE943"/>
     <mergeCell ref="Z944:AE944"/>
-    <mergeCell ref="Z1001:AE1001"/>
-    <mergeCell ref="Z1002:AE1002"/>
-    <mergeCell ref="Z1003:AE1003"/>
-    <mergeCell ref="Z1004:AE1004"/>
-    <mergeCell ref="Z1005:AE1005"/>
-    <mergeCell ref="Z1006:AE1006"/>
-    <mergeCell ref="Z994:AE994"/>
-    <mergeCell ref="Z995:AE995"/>
-    <mergeCell ref="Z996:AE996"/>
-    <mergeCell ref="Z997:AE997"/>
-    <mergeCell ref="Z998:AE998"/>
-    <mergeCell ref="Z999:AE999"/>
-    <mergeCell ref="Z1000:AE1000"/>
     <mergeCell ref="Z945:AE945"/>
     <mergeCell ref="Z946:AE946"/>
     <mergeCell ref="Z947:AE947"/>
@@ -31826,12 +31946,12 @@
     <mergeCell ref="Z985:AE985"/>
     <mergeCell ref="Z986:AE986"/>
     <mergeCell ref="Z987:AE987"/>
-    <mergeCell ref="Z988:AE988"/>
-    <mergeCell ref="Z989:AE989"/>
-    <mergeCell ref="Z990:AE990"/>
-    <mergeCell ref="Z991:AE991"/>
-    <mergeCell ref="Z992:AE992"/>
-    <mergeCell ref="Z993:AE993"/>
+    <mergeCell ref="Z400:AE400"/>
+    <mergeCell ref="Z401:AE401"/>
+    <mergeCell ref="Z402:AE402"/>
+    <mergeCell ref="Z403:AE403"/>
+    <mergeCell ref="Z404:AE404"/>
+    <mergeCell ref="Z405:AE405"/>
     <mergeCell ref="Z406:AE406"/>
     <mergeCell ref="Z407:AE407"/>
     <mergeCell ref="Z408:AE408"/>
@@ -32169,12 +32289,484 @@
     <mergeCell ref="Z740:AE740"/>
     <mergeCell ref="Z741:AE741"/>
     <mergeCell ref="Z742:AE742"/>
-    <mergeCell ref="Z743:AE743"/>
-    <mergeCell ref="Z744:AE744"/>
-    <mergeCell ref="Z745:AE745"/>
-    <mergeCell ref="Z746:AE746"/>
-    <mergeCell ref="Z747:AE747"/>
-    <mergeCell ref="Z748:AE748"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="19.25"/>
+    <col customWidth="1" min="6" max="6" width="19.25"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="45" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="45" t="s">
+        <v>252</v>
+      </c>
+      <c r="G2" s="47"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>264</v>
+      </c>
+      <c r="F3" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="G3" s="63" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="B4" s="44"/>
+      <c r="C4" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>274</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="44"/>
+      <c r="C5" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="44"/>
+      <c r="C6" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="F6" s="55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="54" t="s">
+        <v>303</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="F7" s="55" t="s">
+        <v>375</v>
+      </c>
+      <c r="G7" s="64" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="54" t="s">
+        <v>309</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>376</v>
+      </c>
+      <c r="F8" s="55" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>294</v>
+      </c>
+      <c r="F9" s="55" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>304</v>
+      </c>
+      <c r="F10" s="55" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="54" t="s">
+        <v>325</v>
+      </c>
+      <c r="C11" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>310</v>
+      </c>
+      <c r="F11" s="55" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="54" t="s">
+        <v>328</v>
+      </c>
+      <c r="C12" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="55" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="54" t="s">
+        <v>332</v>
+      </c>
+      <c r="C13" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="C14" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D14" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C15" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="B16" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="C16" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="54" t="s">
+        <v>345</v>
+      </c>
+      <c r="C17" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="54" t="s">
+        <v>349</v>
+      </c>
+      <c r="C18" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="C19" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="54" t="s">
+        <v>379</v>
+      </c>
+      <c r="C20" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D20" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="D21" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="G22" s="65"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="44"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="55" t="s">
+        <v>353</v>
+      </c>
+      <c r="G23" s="64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="44"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" s="55" t="s">
+        <v>356</v>
+      </c>
+      <c r="G24" s="64" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="44"/>
+      <c r="C25" s="54" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" s="55" t="s">
+        <v>358</v>
+      </c>
+      <c r="G25" s="64" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" s="44"/>
+      <c r="C26" s="54" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="F26" s="55" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="44"/>
+      <c r="C27" s="54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" s="54" t="s">
+        <v>272</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>362</v>
+      </c>
+      <c r="F27" s="55" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="44"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54" t="s">
+        <v>102</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>365</v>
+      </c>
+      <c r="F28" s="55" t="s">
+        <v>366</v>
+      </c>
+      <c r="G28" s="64" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="44"/>
+      <c r="C29" s="54"/>
+      <c r="D29" s="54" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="F29" s="55" t="s">
+        <v>369</v>
+      </c>
+      <c r="G29" s="64" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="G7:G21"/>
+    <mergeCell ref="G25:G27"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/SE201 - Project 1.xlsx
+++ b/SE201 - Project 1.xlsx
@@ -5,8 +5,8 @@
   <sheets>
     <sheet state="visible" name="Initial Sheet (PT1)" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="v2 (PT1)" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="v3 (PT1 - the end)" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Auxiliary Sheet (PT1)" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Auxiliary Sheet (PT1)" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="v3 (PT1 - the end)" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="PT2" sheetId="5" r:id="rId8"/>
     <sheet state="visible" name="PT3" sheetId="6" r:id="rId9"/>
     <sheet state="visible" name="PT4" sheetId="7" r:id="rId10"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1487" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1499" uniqueCount="386">
   <si>
     <t>HEX</t>
   </si>
@@ -362,6 +362,9 @@
     <t>THE PAINTED CELLS HAVE TO BE CORRECTED. SWITCH THE BITS</t>
   </si>
   <si>
+    <t>1FE4</t>
+  </si>
+  <si>
     <t>Address</t>
   </si>
   <si>
@@ -485,9 +488,6 @@
     <t>54</t>
   </si>
   <si>
-    <t>1FE4</t>
-  </si>
-  <si>
     <t>Text Section Sizes</t>
   </si>
   <si>
@@ -773,379 +773,382 @@
     <t>func2</t>
   </si>
   <si>
-    <t>mnemonical
+    <t>Mnemonical
 name</t>
   </si>
   <si>
+    <t>Assemby usage</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Saver</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>imm[9:6]</t>
+  </si>
+  <si>
+    <t>imm[5:0]</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>jr lr</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>bnz</t>
+  </si>
+  <si>
+    <t>bnz rs1, &lt;label or offset&gt;</t>
+  </si>
+  <si>
+    <t>Zero source register</t>
+  </si>
+  <si>
+    <t>N.C.</t>
+  </si>
+  <si>
+    <t>funct2</t>
+  </si>
+  <si>
+    <t>register operation</t>
+  </si>
+  <si>
+    <t>mv rd, rs1</t>
+  </si>
+  <si>
+    <t>add rd, rs1, zero</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>add rd, rs1, rs2</t>
+  </si>
+  <si>
+    <t>x1-x4</t>
+  </si>
+  <si>
+    <t>a0-a3</t>
+  </si>
+  <si>
+    <t>Argument register, return value</t>
+  </si>
+  <si>
+    <t>caller</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>r short</t>
+  </si>
+  <si>
+    <t>nop</t>
+  </si>
+  <si>
+    <t>addi zero,0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sub </t>
+  </si>
+  <si>
+    <t>sub rd, rs1, rs2</t>
+  </si>
+  <si>
+    <t>x5-x10</t>
+  </si>
+  <si>
+    <t>s0-s5</t>
+  </si>
+  <si>
+    <t>Register preserved by subprograms</t>
+  </si>
+  <si>
+    <t>callee</t>
+  </si>
+  <si>
+    <t>imm[4:1]</t>
+  </si>
+  <si>
+    <t>imm[0]</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
+    <t>push rs</t>
+  </si>
+  <si>
+    <t>sw rs, -4(sp) addi sp, -4</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>and rd, rs1, rs2</t>
+  </si>
+  <si>
+    <t>x11-x12</t>
+  </si>
+  <si>
+    <t>t0-t1</t>
+  </si>
+  <si>
+    <t>Temporary registers</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>load</t>
+  </si>
+  <si>
+    <t>pop rd</t>
+  </si>
+  <si>
+    <t>lw rd, 0(sp) addi sp, 4</t>
+  </si>
+  <si>
+    <t>0x0</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>sll rd, rs1</t>
+  </si>
+  <si>
+    <t>s0/fp</t>
+  </si>
+  <si>
+    <t>Saved register 0 or frame pointer</t>
+  </si>
+  <si>
+    <t>immediate</t>
+  </si>
+  <si>
+    <t>0x1</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>srl rd, rs1</t>
+  </si>
+  <si>
+    <t>sp</t>
+  </si>
+  <si>
+    <t>Stack pointer</t>
+  </si>
+  <si>
+    <t>JI</t>
+  </si>
+  <si>
+    <t>jump-immediate</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>sra rd, rs1</t>
+  </si>
+  <si>
+    <t>lr</t>
+  </si>
+  <si>
+    <t>Link register</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>jump</t>
+  </si>
+  <si>
+    <t>0x3</t>
+  </si>
+  <si>
+    <t>orr</t>
+  </si>
+  <si>
+    <t>orr rd, rs1</t>
+  </si>
+  <si>
+    <t>0x4</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>xor rd, rs1</t>
+  </si>
+  <si>
+    <t>0x5</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>not rd, rs1</t>
+  </si>
+  <si>
+    <t>Arguments are passed using a1-a4 if smaller than 16 Bytes, on the stack otherwise. Arguments are not preserved by the callee. Return data again from a1 to a4 depending on its size</t>
+  </si>
+  <si>
+    <t>func2 = 11 is forbidden for the Immediate instruction</t>
+  </si>
+  <si>
+    <t>0x6</t>
+  </si>
+  <si>
+    <t>neg</t>
+  </si>
+  <si>
+    <t>neg rd, rs1</t>
+  </si>
+  <si>
+    <t>bit e represent if sign should be extended in li</t>
+  </si>
+  <si>
+    <t>0x7</t>
+  </si>
+  <si>
+    <t>sez</t>
+  </si>
+  <si>
+    <t>sez rd, rs1</t>
+  </si>
+  <si>
+    <t>nop will be addi x0,x0,0</t>
+  </si>
+  <si>
+    <t>slz</t>
+  </si>
+  <si>
+    <t>slz rd, rs1</t>
+  </si>
+  <si>
+    <t>slli immediate will be always unsigned</t>
+  </si>
+  <si>
+    <t>0x9</t>
+  </si>
+  <si>
+    <t>sgz</t>
+  </si>
+  <si>
+    <t>sgz rd, rs1</t>
+  </si>
+  <si>
+    <t>the difference between liw and lib is that lib does not sign extend and allow vales from 0 to 255</t>
+  </si>
+  <si>
+    <t>0xa</t>
+  </si>
+  <si>
+    <t>sgez</t>
+  </si>
+  <si>
+    <t>sgez rd, rs1</t>
+  </si>
+  <si>
+    <t>also pseudo mv rd, imm that expand to 1 to 8 instructions</t>
+  </si>
+  <si>
+    <t>0xb</t>
+  </si>
+  <si>
+    <t>slez</t>
+  </si>
+  <si>
+    <t>slez rd, rs1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">call automatically save pc+4 to lr </t>
+  </si>
+  <si>
+    <t>sw rs2, imm(rs1)</t>
+  </si>
+  <si>
+    <t>Rs is a subset of R</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>lw rd, imm(rs1)</t>
+  </si>
+  <si>
+    <t>stack is full descendent</t>
+  </si>
+  <si>
+    <t>addi rd, rs1, &lt;imm&gt;</t>
+  </si>
+  <si>
+    <t>slli rd, rs1, &lt;imm&gt;</t>
+  </si>
+  <si>
+    <t>li</t>
+  </si>
+  <si>
+    <t>li rd, &lt;imm&gt;</t>
+  </si>
+  <si>
+    <t>call</t>
+  </si>
+  <si>
+    <t>call &lt;label or offset&gt;</t>
+  </si>
+  <si>
+    <t>100000</t>
+  </si>
+  <si>
+    <t>jr</t>
+  </si>
+  <si>
+    <t>jr rs1</t>
+  </si>
+  <si>
+    <t>bnz not taken</t>
+  </si>
+  <si>
+    <t>pc+2</t>
+  </si>
+  <si>
+    <t>bnz taken, call</t>
+  </si>
+  <si>
+    <t>adder</t>
+  </si>
+  <si>
+    <t>reg</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
-    <t>format</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Saver</t>
-  </si>
-  <si>
-    <t>*</t>
-  </si>
-  <si>
-    <t>imm[9:6]</t>
-  </si>
-  <si>
-    <t>imm[5:0]</t>
-  </si>
-  <si>
-    <t>branch</t>
-  </si>
-  <si>
-    <t>jr lr</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>bnz</t>
-  </si>
-  <si>
-    <t>bnz rs1, &lt;label or offset&gt;</t>
-  </si>
-  <si>
-    <t>Zero source register</t>
-  </si>
-  <si>
-    <t>N.C.</t>
-  </si>
-  <si>
-    <t>funct2</t>
-  </si>
-  <si>
-    <t>register operation</t>
-  </si>
-  <si>
-    <t>mv rd, rs1</t>
-  </si>
-  <si>
-    <t>add rd, rs1, zero</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>add rd, rs1, rs2</t>
-  </si>
-  <si>
-    <t>x1-x4</t>
-  </si>
-  <si>
-    <t>a0-a3</t>
-  </si>
-  <si>
-    <t>Argument register, return value</t>
-  </si>
-  <si>
-    <t>caller</t>
-  </si>
-  <si>
-    <t>RS</t>
-  </si>
-  <si>
-    <t>r short</t>
-  </si>
-  <si>
-    <t>nop</t>
-  </si>
-  <si>
-    <t>addi zero,0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sub </t>
-  </si>
-  <si>
-    <t>sub rd, rs1, rs2</t>
-  </si>
-  <si>
-    <t>x5-x10</t>
-  </si>
-  <si>
-    <t>s0-s5</t>
-  </si>
-  <si>
-    <t>Register preserved by subprograms</t>
-  </si>
-  <si>
-    <t>callee</t>
-  </si>
-  <si>
-    <t>imm[4:1]</t>
-  </si>
-  <si>
-    <t>imm[0]</t>
-  </si>
-  <si>
-    <t>store</t>
-  </si>
-  <si>
-    <t>push rs</t>
-  </si>
-  <si>
-    <t>sw rs, -4(sp) addi sp, -4</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>and rd, rs1, rs2</t>
-  </si>
-  <si>
-    <t>x11-x12</t>
-  </si>
-  <si>
-    <t>t0-t1</t>
-  </si>
-  <si>
-    <t>Temporary registers</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>load</t>
-  </si>
-  <si>
-    <t>pop rd</t>
-  </si>
-  <si>
-    <t>lw rd, 0(sp) addi sp, 4</t>
-  </si>
-  <si>
-    <t>0x0</t>
-  </si>
-  <si>
-    <t>sll</t>
-  </si>
-  <si>
-    <t>sll rd, rs1</t>
-  </si>
-  <si>
-    <t>s0/fp</t>
-  </si>
-  <si>
-    <t>Saved register 0 or frame pointer</t>
-  </si>
-  <si>
-    <t>immediate</t>
-  </si>
-  <si>
-    <t>0x1</t>
-  </si>
-  <si>
-    <t>srl</t>
-  </si>
-  <si>
-    <t>srl rd, rs1</t>
-  </si>
-  <si>
-    <t>sp</t>
-  </si>
-  <si>
-    <t>Stack pointer</t>
-  </si>
-  <si>
-    <t>JI</t>
-  </si>
-  <si>
-    <t>jump-immediate</t>
-  </si>
-  <si>
-    <t>sra</t>
-  </si>
-  <si>
-    <t>sra rd, rs1</t>
-  </si>
-  <si>
-    <t>lr</t>
-  </si>
-  <si>
-    <t>Link register</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>jump</t>
-  </si>
-  <si>
-    <t>0x3</t>
-  </si>
-  <si>
-    <t>orr</t>
-  </si>
-  <si>
-    <t>orr rd, rs1</t>
-  </si>
-  <si>
-    <t>0x4</t>
-  </si>
-  <si>
-    <t>xor</t>
-  </si>
-  <si>
-    <t>xor rd, rs1</t>
-  </si>
-  <si>
-    <t>0x5</t>
-  </si>
-  <si>
-    <t>not</t>
-  </si>
-  <si>
-    <t>not rd, rs1</t>
-  </si>
-  <si>
-    <t>Arguments are passed using a1-a4 if smaller than 16 Bytes, on the stack otherwise. Arguments are not preserved by the callee. Return data again from a1 to a4 depending on its size</t>
-  </si>
-  <si>
-    <t>0x6</t>
-  </si>
-  <si>
-    <t>neg</t>
-  </si>
-  <si>
-    <t>neg rd, rs1</t>
-  </si>
-  <si>
-    <t>0x7</t>
-  </si>
-  <si>
-    <t>sez</t>
-  </si>
-  <si>
-    <t>sez rd, rs1</t>
-  </si>
-  <si>
-    <t>slz</t>
-  </si>
-  <si>
-    <t>slz rd, rs1</t>
-  </si>
-  <si>
-    <t>func2 = 11 is forbidden for the Immediate instruction</t>
-  </si>
-  <si>
-    <t>0x9</t>
-  </si>
-  <si>
-    <t>sgz</t>
-  </si>
-  <si>
-    <t>sgz rd, rs1</t>
-  </si>
-  <si>
-    <t>bit e represent if sign should be extended in li</t>
-  </si>
-  <si>
-    <t>0xa</t>
-  </si>
-  <si>
-    <t>sgez</t>
-  </si>
-  <si>
-    <t>sgez rd, rs1</t>
-  </si>
-  <si>
-    <t>nop will be addi x0,x0,0</t>
-  </si>
-  <si>
-    <t>0xb</t>
-  </si>
-  <si>
-    <t>slez</t>
-  </si>
-  <si>
-    <t>slez rd, rs1</t>
-  </si>
-  <si>
-    <t>slli immediate will be always unsigned</t>
-  </si>
-  <si>
-    <t>sw rs2, imm(rs1)</t>
-  </si>
-  <si>
-    <t>the difference between liw and lib is that lib does not sign extend and allow vales from 0 to 255</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>lw rd, imm(rs1)</t>
-  </si>
-  <si>
-    <t>also pseudo mv rd, imm that expand to 1 to 8 instructions</t>
-  </si>
-  <si>
-    <t>addi rd, rs1, &lt;imm&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">call automatically save pc+4 to lr </t>
-  </si>
-  <si>
-    <t>slli rd, rs1, &lt;imm&gt;</t>
-  </si>
-  <si>
-    <t>Rs is a subset of R</t>
-  </si>
-  <si>
-    <t>li</t>
-  </si>
-  <si>
-    <t>li rd, &lt;imm&gt;</t>
-  </si>
-  <si>
-    <t>stack is full descendent</t>
-  </si>
-  <si>
-    <t>call</t>
-  </si>
-  <si>
-    <t>call &lt;label or offset&gt;</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>jr</t>
-  </si>
-  <si>
-    <t>jr rs1</t>
-  </si>
-  <si>
-    <t>bnz not taken</t>
-  </si>
-  <si>
-    <t>pc+2</t>
-  </si>
-  <si>
-    <t>bnz taken, call</t>
-  </si>
-  <si>
-    <t>adder</t>
-  </si>
-  <si>
-    <t>reg</t>
-  </si>
-  <si>
     <t>add rd, rs1</t>
   </si>
   <si>
@@ -1153,6 +1156,20 @@
   </si>
   <si>
     <t>sub rd, rs1</t>
+  </si>
+  <si>
+    <t>Pseudo-instruction</t>
+  </si>
+  <si>
+    <t>Equivalent instruction(s)</t>
+  </si>
+  <si>
+    <t>sw rs, -4(sp) 
+addi sp, -4</t>
+  </si>
+  <si>
+    <t>lw rd, 0(sp) 
+addi sp, 4</t>
   </si>
   <si>
     <t>0xc</t>
@@ -1451,9 +1468,6 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1466,6 +1480,9 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="9" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="2" fillId="4" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1543,16 +1560,13 @@
     </xf>
     <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0"/>
@@ -1560,8 +1574,11 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1569,17 +1586,19 @@
     </xf>
     <xf borderId="7" fillId="0" fontId="8" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="center"/>
@@ -1601,6 +1620,10 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -1631,10 +1654,6 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3797,890 +3816,978 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="7.63"/>
-    <col customWidth="1" min="2" max="2" width="13.13"/>
-    <col customWidth="1" min="3" max="3" width="30.5"/>
-    <col customWidth="1" min="4" max="4" width="11.25"/>
-    <col customWidth="1" min="5" max="5" width="7.63"/>
-    <col customWidth="1" min="6" max="6" width="7.88"/>
-    <col customWidth="1" min="7" max="7" width="11.5"/>
-    <col customWidth="1" min="8" max="8" width="6.0"/>
-    <col customWidth="1" min="9" max="9" width="7.38"/>
-    <col customWidth="1" min="10" max="11" width="11.5"/>
+    <col customWidth="1" min="5" max="36" width="4.0"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="s">
+    <row r="4">
+      <c r="C4" s="18"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="2">
+        <v>31.0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>29.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>27.0</v>
+      </c>
+      <c r="J7" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="K7" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="L7" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>6.0</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>5.0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>3.0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="AI7" s="2">
+        <v>1.0</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="E9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="P9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="X9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Y9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Z9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AB9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AC9" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AD9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AG9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AH9" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI9" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AJ9" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="E12" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J12" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="K12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="V12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Y12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Z12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AB12" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AC12" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AE12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AG12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AH12" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI12" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AJ12" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="E13" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="K13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="V13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Y13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Z13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA13" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AB13" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AC13" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AE13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AG13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AH13" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI13" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AJ13" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="E14" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J14" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="K14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="Y14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Z14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AB14" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AC14" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AE14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AG14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AH14" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI14" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AJ14" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="G15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="K15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="L15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="M15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="N15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="O15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="S15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="T15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="U15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="W15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Y15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Z15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AB15" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AC15" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="E16" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="G16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="I16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="J16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="K16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="M16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="N16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="O16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="P16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="S16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="T16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="U16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="V16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="X16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="Y16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Z16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AA16" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="AB16" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="AC16" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AE16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AF16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AG16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AH16" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="AI16" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="AJ16" s="8">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="E18" s="2">
+        <v>4096.0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>2048.0</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1024.0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>512.0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>256.0</v>
+      </c>
+      <c r="J18" s="2">
+        <v>128.0</v>
+      </c>
+      <c r="K18" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="L18" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>4.0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>2.0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="E19" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F19" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="P19" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S19" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="U19" s="9" t="str">
+        <f t="shared" ref="U19:U22" si="1">DEC2HEX(S19)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="E20" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="K20" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O20" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="P20" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S20" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="U20" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="E21" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F21" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="K21" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="P21" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S21" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="U21" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="E22" s="20">
+        <v>0.0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="H22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="I22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="J22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="K22" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="M22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="P22" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="S22" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="U22" s="9" t="str">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="E23" s="20">
+        <v>1.0</v>
+      </c>
+      <c r="F23" s="22">
+        <v>1.0</v>
+      </c>
+      <c r="G23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="H23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="I23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="J23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="K23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="L23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="M23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="N23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="O23" s="19">
+        <v>1.0</v>
+      </c>
+      <c r="P23" s="19">
+        <v>0.0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0.0</v>
+      </c>
+      <c r="U23" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L2" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G8" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G9" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J11" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="J12" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K12" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G13" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="J13" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G15" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="J15" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="J16" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="K17" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L17" s="8" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G18" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="I18" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="K18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="L18" s="8" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K19" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L19" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L20" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J21" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L21" s="8" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L22" s="8" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="K23" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="L23" s="8" t="s">
-        <v>119</v>
+    </row>
+    <row r="26">
+      <c r="P26" s="2">
+        <v>1.1111111001E12</v>
       </c>
     </row>
   </sheetData>
@@ -4698,978 +4805,890 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="5" max="36" width="4.0"/>
+    <col customWidth="1" min="1" max="1" width="7.63"/>
+    <col customWidth="1" min="2" max="2" width="13.13"/>
+    <col customWidth="1" min="3" max="3" width="30.5"/>
+    <col customWidth="1" min="4" max="4" width="11.25"/>
+    <col customWidth="1" min="5" max="5" width="7.63"/>
+    <col customWidth="1" min="6" max="6" width="7.88"/>
+    <col customWidth="1" min="7" max="7" width="11.5"/>
+    <col customWidth="1" min="8" max="8" width="6.0"/>
+    <col customWidth="1" min="9" max="9" width="7.38"/>
+    <col customWidth="1" min="10" max="11" width="11.5"/>
   </cols>
   <sheetData>
+    <row r="1">
+      <c r="A1" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L3" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="4">
-      <c r="C4" s="19"/>
+      <c r="A4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="7">
-      <c r="E7" s="2">
-        <v>31.0</v>
-      </c>
-      <c r="F7" s="2">
-        <v>30.0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>29.0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>28.0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>27.0</v>
-      </c>
-      <c r="J7" s="2">
-        <v>26.0</v>
-      </c>
-      <c r="K7" s="2">
-        <v>25.0</v>
-      </c>
-      <c r="L7" s="2">
-        <v>24.0</v>
-      </c>
-      <c r="M7" s="2">
-        <v>23.0</v>
-      </c>
-      <c r="N7" s="2">
-        <v>22.0</v>
-      </c>
-      <c r="O7" s="2">
-        <v>21.0</v>
-      </c>
-      <c r="P7" s="2">
-        <v>20.0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>19.0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>18.0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>17.0</v>
-      </c>
-      <c r="T7" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>15.0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>14.0</v>
-      </c>
-      <c r="W7" s="2">
-        <v>13.0</v>
-      </c>
-      <c r="X7" s="2">
-        <v>12.0</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>11.0</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>10.0</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>9.0</v>
-      </c>
-      <c r="AB7" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>7.0</v>
-      </c>
-      <c r="AD7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="AE7" s="2">
-        <v>5.0</v>
-      </c>
-      <c r="AF7" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="AG7" s="2">
-        <v>3.0</v>
-      </c>
-      <c r="AH7" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="AI7" s="2">
-        <v>1.0</v>
-      </c>
-      <c r="AJ7" s="2">
-        <v>0.0</v>
+      <c r="A7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9">
-      <c r="E9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="N9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="P9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="T9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="X9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AB9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AD9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AE9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AF9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AH9" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AI9" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AJ9" s="8">
-        <v>1.0</v>
+      <c r="A9" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="12">
-      <c r="E12" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="L12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="O12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="R12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="T12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="V12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AB12" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AC12" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AD12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AE12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AF12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AH12" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AI12" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AJ12" s="8">
-        <v>1.0</v>
+      <c r="A12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="E13" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J13" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="O13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="T13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="U13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="V13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AA13" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="AB13" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AC13" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AE13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AF13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AH13" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AI13" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AJ13" s="8">
-        <v>1.0</v>
+      <c r="A13" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="14">
-      <c r="E14" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J14" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="L14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="O14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Q14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="T14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AC14" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AD14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AE14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AF14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AH14" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AI14" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AJ14" s="8">
-        <v>1.0</v>
+      <c r="A14" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B14" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="15">
-      <c r="E15" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="G15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J15" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="L15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="M15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="N15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="O15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="S15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="T15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="V15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="W15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Y15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AA15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AB15" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AC15" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="AD15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AE15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AF15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AH15" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AI15" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AJ15" s="8">
-        <v>1.0</v>
+      <c r="A15" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="16">
-      <c r="E16" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="F16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="G16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="H16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="I16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="J16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="R16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="S16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="T16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="U16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="V16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="W16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="X16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="Y16" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Z16" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AA16" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="AB16" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="AC16" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="AD16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AE16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AF16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AG16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AH16" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="AI16" s="8">
-        <v>1.0</v>
-      </c>
-      <c r="AJ16" s="8">
-        <v>1.0</v>
+      <c r="A16" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="J17" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="18">
-      <c r="E18" s="2">
-        <v>4096.0</v>
-      </c>
-      <c r="F18" s="2">
-        <v>2048.0</v>
-      </c>
-      <c r="G18" s="2">
-        <v>1024.0</v>
-      </c>
-      <c r="H18" s="2">
-        <v>512.0</v>
-      </c>
-      <c r="I18" s="2">
-        <v>256.0</v>
-      </c>
-      <c r="J18" s="2">
-        <v>128.0</v>
-      </c>
-      <c r="K18" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="L18" s="2">
-        <v>32.0</v>
-      </c>
-      <c r="M18" s="2">
-        <v>16.0</v>
-      </c>
-      <c r="N18" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="O18" s="2">
-        <v>4.0</v>
-      </c>
-      <c r="P18" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1.0</v>
+      <c r="A18" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="19">
-      <c r="E19" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F19" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="M19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="O19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P19" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S19" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="U19" s="9" t="str">
-        <f t="shared" ref="U19:U22" si="1">DEC2HEX(S19)</f>
-        <v>40</v>
+      <c r="A19" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="20">
-      <c r="E20" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F20" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="M20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="O20" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="P20" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S20" s="2">
-        <v>68.0</v>
-      </c>
-      <c r="U20" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>44</v>
+      <c r="A20" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="21">
-      <c r="E21" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F21" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K21" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="M21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="O21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P21" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S21" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="U21" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c r="A21" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22">
-      <c r="E22" s="21">
-        <v>0.0</v>
-      </c>
-      <c r="F22" s="22">
-        <v>0.0</v>
-      </c>
-      <c r="G22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="I22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="J22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="K22" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="M22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="O22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="P22" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="S22" s="2">
-        <v>64.0</v>
-      </c>
-      <c r="U22" s="9" t="str">
-        <f t="shared" si="1"/>
-        <v>40</v>
+      <c r="A22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="23">
-      <c r="E23" s="21">
-        <v>1.0</v>
-      </c>
-      <c r="F23" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="G23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="H23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="I23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="J23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="K23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="L23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="M23" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="N23" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="O23" s="20">
-        <v>1.0</v>
-      </c>
-      <c r="P23" s="20">
-        <v>0.0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="2" t="s">
+      <c r="A23" s="7" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="26">
-      <c r="P26" s="2">
-        <v>1.1111111001E12</v>
+      <c r="B23" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -5687,59 +5706,59 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
+    <row r="1">
+      <c r="B1" s="24" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="25"/>
+    </row>
     <row r="2">
-      <c r="E2" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F2" s="25"/>
+      <c r="A2" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="3">
-      <c r="D3" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>159</v>
+      <c r="A3" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="8">
+        <v>184.0</v>
+      </c>
+      <c r="C3" s="8">
+        <v>260.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="D4" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" s="8">
-        <v>184.0</v>
-      </c>
-      <c r="F4" s="8">
-        <v>260.0</v>
+      <c r="A4" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="C4" s="8">
+        <v>108.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="D5" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E5" s="8">
-        <v>96.0</v>
-      </c>
-      <c r="F5" s="8">
-        <v>108.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="D6" s="8" t="s">
+      <c r="A5" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="E6" s="8">
+      <c r="B5" s="8">
         <v>76.0</v>
       </c>
-      <c r="F6" s="8">
+      <c r="C5" s="8">
         <v>88.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -5782,28 +5801,28 @@
         <v>74</v>
       </c>
       <c r="C1" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>117</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>164</v>
@@ -5816,8 +5835,8 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="18" t="s">
-        <v>119</v>
+      <c r="A2" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>167</v>
@@ -5867,10 +5886,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="23" t="s">
         <v>177</v>
       </c>
       <c r="C3" s="26" t="s">
@@ -5919,10 +5938,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="23" t="s">
         <v>179</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="23" t="s">
         <v>180</v>
       </c>
       <c r="C4" s="8" t="s">
@@ -5975,10 +5994,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="23" t="s">
         <v>185</v>
       </c>
       <c r="C5" s="8" t="s">
@@ -6023,10 +6042,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="23" t="s">
         <v>187</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -6074,10 +6093,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="23" t="s">
         <v>190</v>
       </c>
       <c r="C7" s="8" t="s">
@@ -6125,10 +6144,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="23" t="s">
         <v>192</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="23" t="s">
         <v>193</v>
       </c>
       <c r="C8" s="8" t="s">
@@ -6176,10 +6195,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="23" t="s">
         <v>196</v>
       </c>
       <c r="C9" s="8" t="s">
@@ -6227,10 +6246,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="23" t="s">
         <v>200</v>
       </c>
       <c r="C10" s="8" t="s">
@@ -6283,10 +6302,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C11" s="8" t="s">
@@ -6355,10 +6374,10 @@
       <c r="AV11" s="2"/>
     </row>
     <row r="12">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="23" t="s">
         <v>209</v>
       </c>
       <c r="C12" s="8" t="s">
@@ -6406,10 +6425,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="23" t="s">
         <v>212</v>
       </c>
       <c r="C13" s="8" t="s">
@@ -6465,10 +6484,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C14" s="8" t="s">
@@ -6524,10 +6543,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="23" t="s">
         <v>221</v>
       </c>
       <c r="C15" s="8" t="s">
@@ -6575,10 +6594,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="23" t="s">
         <v>225</v>
       </c>
       <c r="C16" s="8" t="s">
@@ -6626,10 +6645,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C17" s="8" t="s">
@@ -6677,10 +6696,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="18" t="s">
+      <c r="A18" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B18" s="23" t="s">
         <v>230</v>
       </c>
       <c r="C18" s="8" t="s">
@@ -6729,7 +6748,7 @@
     </row>
     <row r="19">
       <c r="A19" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>232</v>
@@ -6819,10 +6838,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="23" t="s">
         <v>205</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -6870,10 +6889,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="23" t="s">
         <v>208</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="23" t="s">
         <v>209</v>
       </c>
       <c r="C22" s="8" t="s">
@@ -6925,10 +6944,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="23" t="s">
         <v>212</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -6944,7 +6963,7 @@
         <v>169</v>
       </c>
       <c r="G23" s="26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H23" s="8" t="s">
         <v>222</v>
@@ -6994,10 +7013,10 @@
       <c r="AV23" s="2"/>
     </row>
     <row r="24">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="23" t="s">
         <v>217</v>
       </c>
       <c r="C24" s="8" t="s">
@@ -7013,7 +7032,7 @@
         <v>169</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H24" s="8" t="s">
         <v>222</v>
@@ -7056,10 +7075,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="23" t="s">
         <v>220</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="23" t="s">
         <v>221</v>
       </c>
       <c r="C25" s="8" t="s">
@@ -7075,7 +7094,7 @@
         <v>169</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H25" s="26" t="s">
         <v>201</v>
@@ -7110,10 +7129,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="23" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="23" t="s">
         <v>225</v>
       </c>
       <c r="C26" s="8" t="s">
@@ -7129,7 +7148,7 @@
         <v>169</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H26" s="8" t="s">
         <v>201</v>
@@ -7161,10 +7180,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="23" t="s">
         <v>228</v>
       </c>
       <c r="C27" s="8" t="s">
@@ -7180,7 +7199,7 @@
         <v>169</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H27" s="8" t="s">
         <v>201</v>
@@ -7212,10 +7231,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="18" t="s">
+      <c r="A28" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="23" t="s">
         <v>230</v>
       </c>
       <c r="C28" s="8" t="s">
@@ -7231,7 +7250,7 @@
         <v>169</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H28" s="8" t="s">
         <v>201</v>
@@ -7264,7 +7283,7 @@
     </row>
     <row r="29">
       <c r="A29" s="8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>232</v>
@@ -7282,7 +7301,7 @@
         <v>169</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H29" s="8" t="s">
         <v>201</v>
@@ -11397,18 +11416,21 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="11.88"/>
+    <col customWidth="1" min="1" max="1" width="3.75"/>
     <col customWidth="1" min="2" max="17" width="2.63"/>
     <col customWidth="1" min="18" max="18" width="8.13"/>
     <col customWidth="1" min="19" max="19" width="14.0"/>
+    <col customWidth="1" min="20" max="20" width="2.25"/>
+    <col customWidth="1" min="21" max="21" width="2.63"/>
     <col customWidth="1" min="23" max="23" width="13.13"/>
     <col customWidth="1" min="24" max="26" width="6.38"/>
     <col customWidth="1" min="27" max="27" width="14.88"/>
     <col customWidth="1" min="28" max="28" width="19.38"/>
     <col customWidth="1" min="29" max="29" width="6.13"/>
-    <col customWidth="1" min="30" max="32" width="5.13"/>
-    <col customWidth="1" min="33" max="33" width="16.63"/>
-    <col customWidth="1" min="34" max="34" width="6.63"/>
+    <col customWidth="1" min="30" max="31" width="2.0"/>
+    <col customWidth="1" min="32" max="32" width="2.25"/>
+    <col customWidth="1" min="33" max="33" width="2.88"/>
+    <col customWidth="1" min="34" max="34" width="2.38"/>
     <col customWidth="1" min="35" max="35" width="7.63"/>
     <col customWidth="1" min="36" max="36" width="8.25"/>
     <col customWidth="1" min="37" max="37" width="27.5"/>
@@ -11432,8 +11454,6 @@
       <c r="O1" s="42"/>
       <c r="P1" s="42"/>
       <c r="Q1" s="42"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
       <c r="X1" s="44"/>
     </row>
     <row r="2">
@@ -11453,8 +11473,6 @@
       <c r="O2" s="42"/>
       <c r="P2" s="42"/>
       <c r="Q2" s="42"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="18"/>
       <c r="X2" s="44"/>
     </row>
     <row r="3">
@@ -11498,8 +11516,6 @@
       <c r="Q3" s="45">
         <v>0.0</v>
       </c>
-      <c r="T3" s="7"/>
-      <c r="U3" s="18"/>
       <c r="V3" s="2" t="s">
         <v>248</v>
       </c>
@@ -11578,8 +11594,6 @@
       <c r="S4" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="T4" s="7"/>
-      <c r="U4" s="18"/>
       <c r="V4" s="2" t="s">
         <v>232</v>
       </c>
@@ -11591,35 +11605,35 @@
       <c r="Z4" s="51" t="s">
         <v>263</v>
       </c>
-      <c r="AA4" s="52" t="s">
+      <c r="AA4" s="8" t="s">
         <v>264</v>
       </c>
-      <c r="AB4" s="52" t="s">
+      <c r="AB4" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="AC4" s="53" t="s">
+      <c r="AC4" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="AD4" s="54"/>
-      <c r="AE4" s="54"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="52" t="s">
+      <c r="AD4" s="53"/>
+      <c r="AE4" s="53"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="AK4" s="52" t="s">
+      <c r="AJ4" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="AK4" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="52" t="s">
+      <c r="AL4" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AR4" s="55"/>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AR4" s="54"/>
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
     </row>
     <row r="5">
       <c r="B5" s="48" t="s">
@@ -11656,8 +11670,6 @@
       <c r="S5" s="45" t="s">
         <v>269</v>
       </c>
-      <c r="T5" s="7"/>
-      <c r="U5" s="18"/>
       <c r="V5" s="2" t="s">
         <v>270</v>
       </c>
@@ -11671,35 +11683,35 @@
       <c r="Z5" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA5" s="52" t="s">
+      <c r="AA5" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AB5" s="52" t="s">
+      <c r="AB5" s="8" t="s">
         <v>274</v>
       </c>
       <c r="AC5" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="AD5" s="54"/>
-      <c r="AE5" s="54"/>
-      <c r="AH5" s="55"/>
-      <c r="AI5" s="52" t="s">
+      <c r="AD5" s="53"/>
+      <c r="AE5" s="53"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="55" t="s">
         <v>275</v>
       </c>
       <c r="AJ5" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="AK5" s="52" t="s">
+      <c r="AK5" s="55" t="s">
         <v>277</v>
       </c>
-      <c r="AL5" s="52" t="s">
+      <c r="AL5" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="AM5" s="55"/>
-      <c r="AN5" s="55"/>
-      <c r="AR5" s="55"/>
-      <c r="AS5" s="55"/>
-      <c r="AT5" s="55"/>
+      <c r="AM5" s="54"/>
+      <c r="AN5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
     </row>
     <row r="6">
       <c r="B6" s="48" t="s">
@@ -11738,8 +11750,6 @@
       <c r="S6" s="45" t="s">
         <v>280</v>
       </c>
-      <c r="T6" s="7"/>
-      <c r="U6" s="8"/>
       <c r="V6" s="2" t="s">
         <v>281</v>
       </c>
@@ -11753,33 +11763,33 @@
       <c r="Z6" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA6" s="41" t="s">
+      <c r="AA6" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="AB6" s="41" t="s">
+      <c r="AB6" s="8" t="s">
         <v>284</v>
       </c>
       <c r="AC6" s="57"/>
-      <c r="AD6" s="54"/>
-      <c r="AE6" s="54"/>
-      <c r="AH6" s="55"/>
-      <c r="AI6" s="52" t="s">
+      <c r="AD6" s="53"/>
+      <c r="AE6" s="53"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="55" t="s">
         <v>285</v>
       </c>
       <c r="AJ6" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="AK6" s="52" t="s">
+      <c r="AK6" s="55" t="s">
         <v>287</v>
       </c>
-      <c r="AL6" s="52" t="s">
+      <c r="AL6" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
@@ -11821,8 +11831,6 @@
       <c r="S7" s="45" t="s">
         <v>291</v>
       </c>
-      <c r="T7" s="7"/>
-      <c r="U7" s="8"/>
       <c r="V7" s="2" t="s">
         <v>292</v>
       </c>
@@ -11831,38 +11839,38 @@
       </c>
       <c r="X7" s="50"/>
       <c r="Y7" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z7" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA7" s="52" t="s">
+      <c r="AA7" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="AB7" s="52" t="s">
+      <c r="AB7" s="8" t="s">
         <v>295</v>
       </c>
       <c r="AC7" s="59"/>
-      <c r="AD7" s="54"/>
-      <c r="AE7" s="54"/>
-      <c r="AH7" s="55"/>
-      <c r="AI7" s="52" t="s">
+      <c r="AD7" s="53"/>
+      <c r="AE7" s="53"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="55" t="s">
         <v>296</v>
       </c>
       <c r="AJ7" s="41" t="s">
         <v>297</v>
       </c>
-      <c r="AK7" s="52" t="s">
+      <c r="AK7" s="55" t="s">
         <v>298</v>
       </c>
-      <c r="AL7" s="52" t="s">
+      <c r="AL7" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="AM7" s="55"/>
-      <c r="AN7" s="55"/>
-      <c r="AR7" s="55"/>
-      <c r="AS7" s="55"/>
-      <c r="AT7" s="55"/>
+      <c r="AM7" s="54"/>
+      <c r="AN7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
     </row>
     <row r="8" ht="33.75" customHeight="1">
       <c r="B8" s="48" t="s">
@@ -11899,8 +11907,6 @@
       <c r="S8" s="45" t="s">
         <v>300</v>
       </c>
-      <c r="T8" s="7"/>
-      <c r="U8" s="8"/>
       <c r="V8" s="2" t="s">
         <v>301</v>
       </c>
@@ -11916,33 +11922,33 @@
       <c r="Z8" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA8" s="52" t="s">
+      <c r="AA8" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="AB8" s="52" t="s">
+      <c r="AB8" s="8" t="s">
         <v>305</v>
       </c>
       <c r="AC8" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="AH8" s="55"/>
+      <c r="AH8" s="54"/>
       <c r="AI8" s="41" t="s">
         <v>17</v>
       </c>
       <c r="AJ8" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="AK8" s="52" t="s">
+      <c r="AK8" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="AL8" s="52" t="s">
+      <c r="AL8" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="AM8" s="55"/>
-      <c r="AN8" s="55"/>
-      <c r="AR8" s="55"/>
-      <c r="AS8" s="55"/>
-      <c r="AT8" s="55"/>
+      <c r="AM8" s="54"/>
+      <c r="AN8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
     </row>
     <row r="9">
       <c r="B9" s="48" t="s">
@@ -11977,8 +11983,6 @@
       <c r="S9" s="45" t="s">
         <v>308</v>
       </c>
-      <c r="T9" s="7"/>
-      <c r="U9" s="8"/>
       <c r="X9" s="51" t="s">
         <v>309</v>
       </c>
@@ -11988,33 +11992,33 @@
       <c r="Z9" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA9" s="52" t="s">
+      <c r="AA9" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="AB9" s="52" t="s">
+      <c r="AB9" s="8" t="s">
         <v>311</v>
       </c>
       <c r="AC9" s="57"/>
-      <c r="AD9" s="54"/>
-      <c r="AE9" s="54"/>
-      <c r="AH9" s="55"/>
+      <c r="AD9" s="53"/>
+      <c r="AE9" s="53"/>
+      <c r="AH9" s="54"/>
       <c r="AI9" s="41" t="s">
         <v>37</v>
       </c>
       <c r="AJ9" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="AK9" s="52" t="s">
+      <c r="AK9" s="55" t="s">
         <v>313</v>
       </c>
-      <c r="AL9" s="52" t="s">
+      <c r="AL9" s="55" t="s">
         <v>288</v>
       </c>
-      <c r="AM9" s="55"/>
-      <c r="AN9" s="55"/>
-      <c r="AR9" s="55"/>
-      <c r="AS9" s="55"/>
-      <c r="AT9" s="55"/>
+      <c r="AM9" s="54"/>
+      <c r="AN9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
     </row>
     <row r="10">
       <c r="B10" s="48" t="s">
@@ -12051,8 +12055,6 @@
       <c r="S10" s="45" t="s">
         <v>315</v>
       </c>
-      <c r="T10" s="7"/>
-      <c r="U10" s="8"/>
       <c r="X10" s="51" t="s">
         <v>169</v>
       </c>
@@ -12062,33 +12064,33 @@
       <c r="Z10" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA10" s="52" t="s">
+      <c r="AA10" s="8" t="s">
         <v>316</v>
       </c>
-      <c r="AB10" s="52" t="s">
+      <c r="AB10" s="8" t="s">
         <v>317</v>
       </c>
       <c r="AC10" s="57"/>
-      <c r="AD10" s="54"/>
-      <c r="AE10" s="54"/>
-      <c r="AH10" s="55"/>
+      <c r="AD10" s="53"/>
+      <c r="AE10" s="53"/>
+      <c r="AH10" s="54"/>
       <c r="AI10" s="41" t="s">
         <v>33</v>
       </c>
       <c r="AJ10" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="AK10" s="52" t="s">
+      <c r="AK10" s="55" t="s">
         <v>319</v>
       </c>
-      <c r="AL10" s="52" t="s">
+      <c r="AL10" s="55" t="s">
         <v>278</v>
       </c>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="55"/>
+      <c r="AM10" s="54"/>
+      <c r="AN10" s="54"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
     </row>
     <row r="11">
       <c r="B11" s="48" t="s">
@@ -12131,8 +12133,6 @@
       <c r="S11" s="45" t="s">
         <v>321</v>
       </c>
-      <c r="T11" s="7"/>
-      <c r="U11" s="18"/>
       <c r="X11" s="51" t="s">
         <v>322</v>
       </c>
@@ -12142,23 +12142,23 @@
       <c r="Z11" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA11" s="41" t="s">
+      <c r="AA11" s="8" t="s">
         <v>323</v>
       </c>
-      <c r="AB11" s="41" t="s">
+      <c r="AB11" s="8" t="s">
         <v>324</v>
       </c>
       <c r="AC11" s="57"/>
-      <c r="AD11" s="54"/>
-      <c r="AE11" s="54"/>
-      <c r="AH11" s="55"/>
-      <c r="AK11" s="55"/>
-      <c r="AL11" s="55"/>
-      <c r="AM11" s="55"/>
-      <c r="AN11" s="55"/>
-      <c r="AR11" s="55"/>
-      <c r="AS11" s="55"/>
-      <c r="AT11" s="55"/>
+      <c r="AD11" s="53"/>
+      <c r="AE11" s="53"/>
+      <c r="AH11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="54"/>
+      <c r="AN11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
     </row>
     <row r="12">
       <c r="B12" s="42"/>
@@ -12177,8 +12177,6 @@
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="18"/>
       <c r="X12" s="51" t="s">
         <v>325</v>
       </c>
@@ -12188,23 +12186,23 @@
       <c r="Z12" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA12" s="41" t="s">
+      <c r="AA12" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="AB12" s="41" t="s">
+      <c r="AB12" s="8" t="s">
         <v>327</v>
       </c>
       <c r="AC12" s="57"/>
-      <c r="AD12" s="54"/>
-      <c r="AE12" s="54"/>
-      <c r="AH12" s="55"/>
-      <c r="AK12" s="55"/>
-      <c r="AL12" s="55"/>
-      <c r="AM12" s="55"/>
-      <c r="AN12" s="55"/>
-      <c r="AR12" s="55"/>
-      <c r="AS12" s="55"/>
-      <c r="AT12" s="55"/>
+      <c r="AD12" s="53"/>
+      <c r="AE12" s="53"/>
+      <c r="AH12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
     </row>
     <row r="13">
       <c r="B13" s="42"/>
@@ -12223,8 +12221,6 @@
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="18"/>
       <c r="X13" s="51" t="s">
         <v>328</v>
       </c>
@@ -12234,31 +12230,34 @@
       <c r="Z13" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA13" s="41" t="s">
+      <c r="AA13" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="AB13" s="41" t="s">
+      <c r="AB13" s="8" t="s">
         <v>330</v>
       </c>
       <c r="AC13" s="57"/>
-      <c r="AD13" s="54"/>
-      <c r="AE13" s="54"/>
-      <c r="AH13" s="55"/>
+      <c r="AD13" s="53"/>
+      <c r="AE13" s="53"/>
+      <c r="AH13" s="54"/>
       <c r="AI13" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="AK13" s="55"/>
-      <c r="AL13" s="55"/>
-      <c r="AM13" s="55"/>
-      <c r="AN13" s="55"/>
-      <c r="AO13" s="55"/>
-      <c r="AP13" s="55"/>
-      <c r="AQ13" s="55"/>
-      <c r="AR13" s="55"/>
-      <c r="AS13" s="55"/>
-      <c r="AT13" s="55"/>
+      <c r="AK13" s="54"/>
+      <c r="AL13" s="54"/>
+      <c r="AM13" s="54"/>
+      <c r="AN13" s="54"/>
+      <c r="AO13" s="54"/>
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
     </row>
     <row r="14">
+      <c r="A14" s="2" t="s">
+        <v>332</v>
+      </c>
       <c r="B14" s="42"/>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
@@ -12274,10 +12273,8 @@
       <c r="N14" s="42"/>
       <c r="P14" s="42"/>
       <c r="Q14" s="42"/>
-      <c r="T14" s="7"/>
-      <c r="U14" s="18"/>
       <c r="X14" s="51" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="Y14" s="51" t="s">
         <v>272</v>
@@ -12285,28 +12282,31 @@
       <c r="Z14" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA14" s="41" t="s">
-        <v>333</v>
-      </c>
-      <c r="AB14" s="41" t="s">
+      <c r="AA14" s="8" t="s">
         <v>334</v>
       </c>
+      <c r="AB14" s="8" t="s">
+        <v>335</v>
+      </c>
       <c r="AC14" s="57"/>
-      <c r="AD14" s="54"/>
-      <c r="AE14" s="54"/>
-      <c r="AH14" s="55"/>
-      <c r="AK14" s="55"/>
-      <c r="AL14" s="55"/>
-      <c r="AM14" s="55"/>
-      <c r="AN14" s="55"/>
-      <c r="AO14" s="55"/>
-      <c r="AP14" s="55"/>
-      <c r="AQ14" s="55"/>
-      <c r="AR14" s="55"/>
-      <c r="AS14" s="55"/>
-      <c r="AT14" s="55"/>
+      <c r="AD14" s="53"/>
+      <c r="AE14" s="53"/>
+      <c r="AH14" s="54"/>
+      <c r="AK14" s="54"/>
+      <c r="AL14" s="54"/>
+      <c r="AM14" s="54"/>
+      <c r="AN14" s="54"/>
+      <c r="AO14" s="54"/>
+      <c r="AP14" s="54"/>
+      <c r="AQ14" s="54"/>
+      <c r="AR14" s="54"/>
+      <c r="AS14" s="54"/>
+      <c r="AT14" s="54"/>
     </row>
     <row r="15">
+      <c r="A15" s="2" t="s">
+        <v>336</v>
+      </c>
       <c r="B15" s="42"/>
       <c r="C15" s="42"/>
       <c r="D15" s="42"/>
@@ -12323,7 +12323,7 @@
       <c r="P15" s="42"/>
       <c r="Q15" s="42"/>
       <c r="X15" s="51" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Y15" s="51" t="s">
         <v>272</v>
@@ -12331,28 +12331,31 @@
       <c r="Z15" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA15" s="41" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB15" s="41" t="s">
-        <v>337</v>
+      <c r="AA15" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="AB15" s="8" t="s">
+        <v>339</v>
       </c>
       <c r="AC15" s="57"/>
-      <c r="AD15" s="54"/>
-      <c r="AE15" s="54"/>
-      <c r="AH15" s="55"/>
-      <c r="AK15" s="55"/>
-      <c r="AL15" s="55"/>
-      <c r="AM15" s="55"/>
-      <c r="AN15" s="55"/>
-      <c r="AO15" s="55"/>
-      <c r="AP15" s="55"/>
-      <c r="AQ15" s="55"/>
-      <c r="AR15" s="55"/>
-      <c r="AS15" s="55"/>
-      <c r="AT15" s="55"/>
+      <c r="AD15" s="53"/>
+      <c r="AE15" s="53"/>
+      <c r="AH15" s="54"/>
+      <c r="AK15" s="54"/>
+      <c r="AL15" s="54"/>
+      <c r="AM15" s="54"/>
+      <c r="AN15" s="54"/>
+      <c r="AO15" s="54"/>
+      <c r="AP15" s="54"/>
+      <c r="AQ15" s="54"/>
+      <c r="AR15" s="54"/>
+      <c r="AS15" s="54"/>
+      <c r="AT15" s="54"/>
     </row>
     <row r="16">
+      <c r="A16" s="2" t="s">
+        <v>340</v>
+      </c>
       <c r="B16" s="42"/>
       <c r="C16" s="42"/>
       <c r="D16" s="42"/>
@@ -12372,28 +12375,28 @@
       <c r="Z16" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA16" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="AB16" s="41" t="s">
-        <v>339</v>
+      <c r="AA16" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="AB16" s="8" t="s">
+        <v>342</v>
       </c>
       <c r="AC16" s="57"/>
-      <c r="AD16" s="54"/>
-      <c r="AE16" s="54"/>
-      <c r="AH16" s="55"/>
-      <c r="AM16" s="55"/>
-      <c r="AN16" s="55"/>
-      <c r="AO16" s="55"/>
-      <c r="AP16" s="55"/>
-      <c r="AQ16" s="55"/>
-      <c r="AR16" s="55"/>
-      <c r="AS16" s="55"/>
-      <c r="AT16" s="55"/>
+      <c r="AD16" s="53"/>
+      <c r="AE16" s="53"/>
+      <c r="AH16" s="54"/>
+      <c r="AM16" s="54"/>
+      <c r="AN16" s="54"/>
+      <c r="AO16" s="54"/>
+      <c r="AP16" s="54"/>
+      <c r="AQ16" s="54"/>
+      <c r="AR16" s="54"/>
+      <c r="AS16" s="54"/>
+      <c r="AT16" s="54"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B17" s="42"/>
       <c r="C17" s="42"/>
@@ -12406,7 +12409,7 @@
       <c r="J17" s="42"/>
       <c r="K17" s="42"/>
       <c r="X17" s="51" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Y17" s="51" t="s">
         <v>272</v>
@@ -12414,27 +12417,27 @@
       <c r="Z17" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA17" s="41" t="s">
-        <v>342</v>
-      </c>
-      <c r="AB17" s="41" t="s">
-        <v>343</v>
+      <c r="AA17" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="AB17" s="8" t="s">
+        <v>346</v>
       </c>
       <c r="AC17" s="57"/>
-      <c r="AD17" s="54"/>
-      <c r="AE17" s="54"/>
-      <c r="AM17" s="55"/>
-      <c r="AN17" s="55"/>
-      <c r="AO17" s="55"/>
-      <c r="AP17" s="55"/>
-      <c r="AQ17" s="55"/>
-      <c r="AR17" s="55"/>
-      <c r="AS17" s="55"/>
-      <c r="AT17" s="55"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AM17" s="54"/>
+      <c r="AN17" s="54"/>
+      <c r="AO17" s="54"/>
+      <c r="AP17" s="54"/>
+      <c r="AQ17" s="54"/>
+      <c r="AR17" s="54"/>
+      <c r="AS17" s="54"/>
+      <c r="AT17" s="54"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B18" s="42"/>
       <c r="C18" s="42"/>
@@ -12447,7 +12450,7 @@
       <c r="J18" s="42"/>
       <c r="K18" s="42"/>
       <c r="X18" s="51" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="Y18" s="51" t="s">
         <v>272</v>
@@ -12455,27 +12458,27 @@
       <c r="Z18" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA18" s="41" t="s">
-        <v>346</v>
-      </c>
-      <c r="AB18" s="41" t="s">
-        <v>347</v>
+      <c r="AA18" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="AB18" s="8" t="s">
+        <v>350</v>
       </c>
       <c r="AC18" s="57"/>
-      <c r="AD18" s="54"/>
-      <c r="AE18" s="54"/>
-      <c r="AM18" s="55"/>
-      <c r="AN18" s="55"/>
-      <c r="AO18" s="55"/>
-      <c r="AP18" s="55"/>
-      <c r="AQ18" s="55"/>
-      <c r="AR18" s="55"/>
-      <c r="AS18" s="55"/>
-      <c r="AT18" s="55"/>
+      <c r="AD18" s="53"/>
+      <c r="AE18" s="53"/>
+      <c r="AM18" s="54"/>
+      <c r="AN18" s="54"/>
+      <c r="AO18" s="54"/>
+      <c r="AP18" s="54"/>
+      <c r="AQ18" s="54"/>
+      <c r="AR18" s="54"/>
+      <c r="AS18" s="54"/>
+      <c r="AT18" s="54"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B19" s="42"/>
       <c r="C19" s="42"/>
@@ -12488,7 +12491,7 @@
       <c r="J19" s="42"/>
       <c r="K19" s="42"/>
       <c r="X19" s="51" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="Y19" s="51" t="s">
         <v>272</v>
@@ -12496,27 +12499,27 @@
       <c r="Z19" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="AA19" s="41" t="s">
-        <v>350</v>
-      </c>
-      <c r="AB19" s="41" t="s">
-        <v>351</v>
+      <c r="AA19" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB19" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="AC19" s="59"/>
-      <c r="AD19" s="54"/>
-      <c r="AE19" s="54"/>
-      <c r="AM19" s="55"/>
-      <c r="AN19" s="55"/>
-      <c r="AO19" s="55"/>
-      <c r="AP19" s="55"/>
-      <c r="AQ19" s="55"/>
-      <c r="AR19" s="55"/>
-      <c r="AS19" s="55"/>
-      <c r="AT19" s="55"/>
+      <c r="AD19" s="53"/>
+      <c r="AE19" s="53"/>
+      <c r="AM19" s="54"/>
+      <c r="AN19" s="54"/>
+      <c r="AO19" s="54"/>
+      <c r="AP19" s="54"/>
+      <c r="AQ19" s="54"/>
+      <c r="AR19" s="54"/>
+      <c r="AS19" s="54"/>
+      <c r="AT19" s="54"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B20" s="42"/>
       <c r="C20" s="42"/>
@@ -12533,27 +12536,27 @@
       <c r="Z20" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="AA20" s="52" t="s">
+      <c r="AA20" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="AB20" s="52" t="s">
-        <v>353</v>
+      <c r="AB20" s="8" t="s">
+        <v>356</v>
       </c>
       <c r="AC20" s="61" t="s">
         <v>104</v>
       </c>
-      <c r="AM20" s="55"/>
-      <c r="AN20" s="55"/>
-      <c r="AO20" s="55"/>
-      <c r="AP20" s="55"/>
-      <c r="AQ20" s="55"/>
-      <c r="AR20" s="55"/>
-      <c r="AS20" s="55"/>
-      <c r="AT20" s="55"/>
+      <c r="AM20" s="54"/>
+      <c r="AN20" s="54"/>
+      <c r="AO20" s="54"/>
+      <c r="AP20" s="54"/>
+      <c r="AQ20" s="54"/>
+      <c r="AR20" s="54"/>
+      <c r="AS20" s="54"/>
+      <c r="AT20" s="54"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B21" s="42"/>
       <c r="C21" s="42"/>
@@ -12568,13 +12571,13 @@
       <c r="X21" s="51"/>
       <c r="Y21" s="51"/>
       <c r="Z21" s="51" t="s">
-        <v>355</v>
-      </c>
-      <c r="AA21" s="52" t="s">
+        <v>358</v>
+      </c>
+      <c r="AA21" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AB21" s="52" t="s">
-        <v>356</v>
+      <c r="AB21" s="8" t="s">
+        <v>359</v>
       </c>
       <c r="AC21" s="61" t="s">
         <v>299</v>
@@ -12582,7 +12585,7 @@
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="B22" s="42"/>
       <c r="C22" s="42"/>
@@ -12607,20 +12610,17 @@
       <c r="Z22" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="AA22" s="52" t="s">
+      <c r="AA22" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="AB22" s="52" t="s">
-        <v>358</v>
+      <c r="AB22" s="8" t="s">
+        <v>361</v>
       </c>
       <c r="AC22" s="60" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="s">
-        <v>359</v>
-      </c>
       <c r="B23" s="42"/>
       <c r="C23" s="42"/>
       <c r="D23" s="42"/>
@@ -12637,25 +12637,22 @@
       <c r="O23" s="42"/>
       <c r="P23" s="42"/>
       <c r="Q23" s="42"/>
-      <c r="X23" s="62"/>
+      <c r="X23" s="7"/>
       <c r="Y23" s="51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Z23" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="AA23" s="52" t="s">
+      <c r="AA23" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AB23" s="52" t="s">
-        <v>360</v>
+      <c r="AB23" s="8" t="s">
+        <v>362</v>
       </c>
       <c r="AC23" s="57"/>
     </row>
     <row r="24">
-      <c r="A24" s="2" t="s">
-        <v>361</v>
-      </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
       <c r="D24" s="42"/>
@@ -12679,18 +12676,15 @@
       <c r="Z24" s="51" t="s">
         <v>272</v>
       </c>
-      <c r="AA24" s="52" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB24" s="52" t="s">
+      <c r="AA24" s="8" t="s">
         <v>363</v>
       </c>
+      <c r="AB24" s="8" t="s">
+        <v>364</v>
+      </c>
       <c r="AC24" s="59"/>
     </row>
     <row r="25">
-      <c r="A25" s="2" t="s">
-        <v>364</v>
-      </c>
       <c r="B25" s="42"/>
       <c r="C25" s="42"/>
       <c r="D25" s="42"/>
@@ -12712,10 +12706,10 @@
       <c r="Z25" s="51" t="s">
         <v>102</v>
       </c>
-      <c r="AA25" s="52" t="s">
+      <c r="AA25" s="8" t="s">
         <v>365</v>
       </c>
-      <c r="AB25" s="52" t="s">
+      <c r="AB25" s="8" t="s">
         <v>366</v>
       </c>
       <c r="AC25" s="61" t="s">
@@ -12744,10 +12738,10 @@
       <c r="Z26" s="51" t="s">
         <v>367</v>
       </c>
-      <c r="AA26" s="52" t="s">
+      <c r="AA26" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="AB26" s="52" t="s">
+      <c r="AB26" s="8" t="s">
         <v>369</v>
       </c>
       <c r="AC26" s="61" t="s">
@@ -32306,10 +32300,13 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="19.25"/>
     <col customWidth="1" min="6" max="6" width="19.25"/>
+    <col customWidth="1" min="9" max="9" width="17.75"/>
+    <col customWidth="1" min="10" max="10" width="23.5"/>
+    <col customWidth="1" min="11" max="11" width="17.5"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="53" t="s">
         <v>249</v>
       </c>
       <c r="C2" s="45" t="s">
@@ -32320,51 +32317,51 @@
       </c>
       <c r="E2" s="42"/>
       <c r="F2" s="45" t="s">
-        <v>252</v>
+        <v>375</v>
       </c>
       <c r="G2" s="47"/>
     </row>
     <row r="3">
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="F3" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="62" t="s">
         <v>88</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4">
       <c r="B4" s="44"/>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E4" s="55" t="s">
+      <c r="E4" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="62" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" s="44"/>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="53" t="s">
         <v>273</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -32376,132 +32373,162 @@
     </row>
     <row r="6">
       <c r="B6" s="44"/>
-      <c r="C6" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="54" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="53" t="s">
         <v>303</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="54" t="s">
+      <c r="D7" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="F7" s="55" t="s">
-        <v>375</v>
-      </c>
-      <c r="G7" s="64" t="s">
+      <c r="F7" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G7" s="63" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="53" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E8" s="55" t="s">
-        <v>376</v>
-      </c>
-      <c r="F8" s="55" t="s">
+      <c r="E8" s="54" t="s">
         <v>377</v>
       </c>
+      <c r="F8" s="54" t="s">
+        <v>378</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="J8" s="14" t="s">
+        <v>380</v>
+      </c>
     </row>
     <row r="9">
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D9" s="54" t="s">
+      <c r="D9" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E9" s="55" t="s">
+      <c r="E9" s="54" t="s">
         <v>294</v>
       </c>
-      <c r="F9" s="55" t="s">
+      <c r="F9" s="54" t="s">
         <v>295</v>
       </c>
+      <c r="I9" s="61" t="s">
+        <v>232</v>
+      </c>
+      <c r="J9" s="61" t="s">
+        <v>262</v>
+      </c>
     </row>
     <row r="10">
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>322</v>
       </c>
-      <c r="C10" s="54" t="s">
+      <c r="C10" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D10" s="54" t="s">
+      <c r="D10" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="54" t="s">
         <v>304</v>
       </c>
-      <c r="F10" s="55" t="s">
+      <c r="F10" s="54" t="s">
         <v>305</v>
       </c>
+      <c r="I10" s="61" t="s">
+        <v>270</v>
+      </c>
+      <c r="J10" s="61" t="s">
+        <v>271</v>
+      </c>
     </row>
     <row r="11">
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>325</v>
       </c>
-      <c r="C11" s="54" t="s">
+      <c r="C11" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="54" t="s">
+      <c r="D11" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="54" t="s">
         <v>310</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="54" t="s">
         <v>311</v>
       </c>
+      <c r="I11" s="61" t="s">
+        <v>281</v>
+      </c>
+      <c r="J11" s="61" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="53" t="s">
         <v>328</v>
       </c>
-      <c r="C12" s="54" t="s">
+      <c r="C12" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D12" s="54" t="s">
+      <c r="D12" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="54" t="s">
         <v>316</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F12" s="54" t="s">
         <v>317</v>
       </c>
+      <c r="I12" s="61" t="s">
+        <v>292</v>
+      </c>
+      <c r="J12" s="64" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="13">
-      <c r="B13" s="54" t="s">
-        <v>332</v>
-      </c>
-      <c r="C13" s="54" t="s">
+      <c r="B13" s="53" t="s">
+        <v>333</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="53" t="s">
         <v>273</v>
       </c>
       <c r="E13" s="2" t="s">
@@ -32510,15 +32537,21 @@
       <c r="F13" s="2" t="s">
         <v>324</v>
       </c>
+      <c r="I13" s="61" t="s">
+        <v>301</v>
+      </c>
+      <c r="J13" s="64" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="14">
-      <c r="B14" s="54" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="54" t="s">
+      <c r="B14" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="53" t="s">
         <v>273</v>
       </c>
       <c r="E14" s="2" t="s">
@@ -32529,13 +32562,13 @@
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="53" t="s">
         <v>197</v>
       </c>
-      <c r="C15" s="54" t="s">
+      <c r="C15" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D15" s="53" t="s">
         <v>273</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -32546,105 +32579,105 @@
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="54" t="s">
+      <c r="B16" s="53" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D16" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D17" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="53" t="s">
+        <v>352</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="D18" s="53" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="C16" s="54" t="s">
+      <c r="F18" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="53" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D16" s="54" t="s">
+      <c r="D19" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="54" t="s">
+      <c r="E19" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="C17" s="54" t="s">
+      <c r="F19" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="53" t="s">
+        <v>384</v>
+      </c>
+      <c r="C20" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D20" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="54" t="s">
+      <c r="E20" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="F20" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="53" t="s">
+        <v>385</v>
+      </c>
+      <c r="C21" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="D18" s="54" t="s">
+      <c r="D21" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="54" t="s">
-        <v>378</v>
-      </c>
-      <c r="C19" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D19" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="54" t="s">
-        <v>379</v>
-      </c>
-      <c r="C20" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D20" s="54" t="s">
-        <v>273</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C21" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="D21" s="54" t="s">
-        <v>273</v>
-      </c>
       <c r="E21" s="2" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22">
@@ -32652,113 +32685,113 @@
     </row>
     <row r="23">
       <c r="B23" s="44"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="F23" s="55" t="s">
-        <v>353</v>
-      </c>
-      <c r="G23" s="64" t="s">
+      <c r="F23" s="54" t="s">
+        <v>356</v>
+      </c>
+      <c r="G23" s="63" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="24">
       <c r="B24" s="44"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54" t="s">
-        <v>355</v>
-      </c>
-      <c r="E24" s="55" t="s">
+      <c r="C24" s="53"/>
+      <c r="D24" s="53" t="s">
+        <v>358</v>
+      </c>
+      <c r="E24" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="F24" s="55" t="s">
-        <v>356</v>
-      </c>
-      <c r="G24" s="64" t="s">
+      <c r="F24" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="G24" s="63" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" s="44"/>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="53" t="s">
         <v>273</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E25" s="55" t="s">
+      <c r="E25" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="F25" s="55" t="s">
-        <v>358</v>
-      </c>
-      <c r="G25" s="64" t="s">
+      <c r="F25" s="54" t="s">
+        <v>361</v>
+      </c>
+      <c r="G25" s="63" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" s="44"/>
-      <c r="C26" s="54" t="s">
-        <v>128</v>
-      </c>
-      <c r="D26" s="54" t="s">
+      <c r="C26" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="D26" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E26" s="55" t="s">
+      <c r="E26" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="55" t="s">
-        <v>360</v>
+      <c r="F26" s="54" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" s="44"/>
-      <c r="C27" s="54" t="s">
+      <c r="C27" s="53" t="s">
         <v>263</v>
       </c>
-      <c r="D27" s="54" t="s">
+      <c r="D27" s="53" t="s">
         <v>272</v>
       </c>
-      <c r="E27" s="55" t="s">
-        <v>362</v>
-      </c>
-      <c r="F27" s="55" t="s">
+      <c r="E27" s="54" t="s">
         <v>363</v>
+      </c>
+      <c r="F27" s="54" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" s="44"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54" t="s">
+      <c r="C28" s="53"/>
+      <c r="D28" s="53" t="s">
         <v>102</v>
       </c>
-      <c r="E28" s="55" t="s">
+      <c r="E28" s="54" t="s">
         <v>365</v>
       </c>
-      <c r="F28" s="55" t="s">
+      <c r="F28" s="54" t="s">
         <v>366</v>
       </c>
-      <c r="G28" s="64" t="s">
+      <c r="G28" s="63" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" s="44"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54" t="s">
+      <c r="C29" s="53"/>
+      <c r="D29" s="53" t="s">
         <v>367</v>
       </c>
-      <c r="E29" s="55" t="s">
+      <c r="E29" s="54" t="s">
         <v>368</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="54" t="s">
         <v>369</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="63" t="s">
         <v>320</v>
       </c>
     </row>
